--- a/Code/Results/Cases/Case_2_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_29/res_bus/vm_pu.xlsx
@@ -427,7 +427,7 @@
         <v>1.019516225446043</v>
       </c>
       <c r="E2">
-        <v>0.9668322523550444</v>
+        <v>0.9668322523550441</v>
       </c>
       <c r="F2">
         <v>1.005420037016763</v>
@@ -445,7 +445,7 @@
         <v>1.030710202427783</v>
       </c>
       <c r="L2">
-        <v>0.9787738581262376</v>
+        <v>0.9787738581262373</v>
       </c>
       <c r="M2">
         <v>1.016804375054126</v>
@@ -465,10 +465,10 @@
         <v>1.027155045155127</v>
       </c>
       <c r="E3">
-        <v>0.9755109573339391</v>
+        <v>0.9755109573339387</v>
       </c>
       <c r="F3">
-        <v>1.014640701138418</v>
+        <v>1.014640701138417</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -483,10 +483,10 @@
         <v>1.037451873129952</v>
       </c>
       <c r="L3">
-        <v>0.9864670755147751</v>
+        <v>0.9864670755147744</v>
       </c>
       <c r="M3">
-        <v>1.025089616945017</v>
+        <v>1.025089616945016</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016741671317484</v>
+        <v>1.016741671317482</v>
       </c>
       <c r="D4">
-        <v>1.03189408307722</v>
+        <v>1.031894083077218</v>
       </c>
       <c r="E4">
-        <v>0.9808541218773671</v>
+        <v>0.9808541218773666</v>
       </c>
       <c r="F4">
-        <v>1.020345401211364</v>
+        <v>1.020345401211362</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052202089624264</v>
+        <v>1.052202089624263</v>
       </c>
       <c r="J4">
-        <v>1.035726606709481</v>
+        <v>1.035726606709479</v>
       </c>
       <c r="K4">
-        <v>1.04162223013008</v>
+        <v>1.041622230130078</v>
       </c>
       <c r="L4">
-        <v>0.9911892484772651</v>
+        <v>0.9911892484772648</v>
       </c>
       <c r="M4">
-        <v>1.030204323114906</v>
+        <v>1.030204323114904</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019170912983616</v>
+        <v>1.019170912983615</v>
       </c>
       <c r="D5">
         <v>1.033841299887521</v>
       </c>
       <c r="E5">
-        <v>0.9830403379778681</v>
+        <v>0.9830403379778675</v>
       </c>
       <c r="F5">
         <v>1.022685986814035</v>
@@ -553,13 +553,13 @@
         <v>1.053188076212976</v>
       </c>
       <c r="J5">
-        <v>1.037654297202175</v>
+        <v>1.037654297202174</v>
       </c>
       <c r="K5">
-        <v>1.043332947022047</v>
+        <v>1.043332947022046</v>
       </c>
       <c r="L5">
-        <v>0.9931179927063064</v>
+        <v>0.9931179927063063</v>
       </c>
       <c r="M5">
         <v>1.032300174832636</v>
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019575625100674</v>
+        <v>1.019575625100675</v>
       </c>
       <c r="D6">
-        <v>1.034165702236273</v>
+        <v>1.034165702236274</v>
       </c>
       <c r="E6">
-        <v>0.9834040302377162</v>
+        <v>0.9834040302377171</v>
       </c>
       <c r="F6">
-        <v>1.023075732416795</v>
+        <v>1.023075732416797</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053352078483532</v>
+        <v>1.053352078483533</v>
       </c>
       <c r="J6">
-        <v>1.037975309373544</v>
+        <v>1.037975309373545</v>
       </c>
       <c r="K6">
-        <v>1.043617783917353</v>
+        <v>1.043617783917354</v>
       </c>
       <c r="L6">
-        <v>0.993438654305964</v>
+        <v>0.9934386543059652</v>
       </c>
       <c r="M6">
-        <v>1.032649012401646</v>
+        <v>1.032649012401647</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -614,10 +614,10 @@
         <v>1.016774345944625</v>
       </c>
       <c r="D7">
-        <v>1.031920274437212</v>
+        <v>1.031920274437213</v>
       </c>
       <c r="E7">
-        <v>0.9808835638051323</v>
+        <v>0.9808835638051328</v>
       </c>
       <c r="F7">
         <v>1.020376896736207</v>
@@ -635,10 +635,10 @@
         <v>1.041645251575034</v>
       </c>
       <c r="L7">
-        <v>0.9912152364264768</v>
+        <v>0.9912152364264772</v>
       </c>
       <c r="M7">
-        <v>1.030232535970506</v>
+        <v>1.030232535970507</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004575878469077</v>
+        <v>1.004575878469079</v>
       </c>
       <c r="D8">
-        <v>1.022142388786709</v>
+        <v>1.022142388786711</v>
       </c>
       <c r="E8">
-        <v>0.9698250518779004</v>
+        <v>0.9698250518779016</v>
       </c>
       <c r="F8">
-        <v>1.008593601265185</v>
+        <v>1.008593601265186</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047226171315799</v>
+        <v>1.0472261713158</v>
       </c>
       <c r="J8">
-        <v>1.026052171809414</v>
+        <v>1.026052171809416</v>
       </c>
       <c r="K8">
-        <v>1.033030553202711</v>
+        <v>1.033030553202713</v>
       </c>
       <c r="L8">
-        <v>0.9814298933969323</v>
+        <v>0.9814298933969337</v>
       </c>
       <c r="M8">
-        <v>1.019658411535165</v>
+        <v>1.019658411535167</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9808765982494879</v>
+        <v>0.9808765982494887</v>
       </c>
       <c r="D9">
-        <v>1.003154296240524</v>
+        <v>1.003154296240525</v>
       </c>
       <c r="E9">
-        <v>0.9479723634803062</v>
+        <v>0.947972363480307</v>
       </c>
       <c r="F9">
-        <v>0.9855596853566277</v>
+        <v>0.9855596853566284</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037379028412952</v>
+        <v>1.037379028412953</v>
       </c>
       <c r="J9">
-        <v>1.007123208653631</v>
+        <v>1.007123208653632</v>
       </c>
       <c r="K9">
-        <v>1.016196403653191</v>
+        <v>1.016196403653192</v>
       </c>
       <c r="L9">
-        <v>0.9619699976052561</v>
+        <v>0.9619699976052568</v>
       </c>
       <c r="M9">
-        <v>0.9988914735464931</v>
+        <v>0.9988914735464939</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -728,13 +728,13 @@
         <v>0.963158393492716</v>
       </c>
       <c r="D10">
-        <v>0.9889736041377047</v>
+        <v>0.9889736041377046</v>
       </c>
       <c r="E10">
-        <v>0.9313273017731636</v>
+        <v>0.9313273017731641</v>
       </c>
       <c r="F10">
-        <v>0.9682164395897778</v>
+        <v>0.9682164395897779</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.02991118938865</v>
       </c>
       <c r="J10">
-        <v>0.9929140110646902</v>
+        <v>0.9929140110646901</v>
       </c>
       <c r="K10">
         <v>1.003544838954587</v>
       </c>
       <c r="L10">
-        <v>0.9470579878520193</v>
+        <v>0.9470579878520199</v>
       </c>
       <c r="M10">
-        <v>0.9831842893714832</v>
+        <v>0.9831842893714834</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9549003076969789</v>
+        <v>0.9549003076969771</v>
       </c>
       <c r="D11">
-        <v>0.9823705212539181</v>
+        <v>0.9823705212539164</v>
       </c>
       <c r="E11">
-        <v>0.9234795779409877</v>
+        <v>0.9234795779409853</v>
       </c>
       <c r="F11">
-        <v>0.9600961227497348</v>
+        <v>0.960096122749733</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026405373152299</v>
+        <v>1.026405373152298</v>
       </c>
       <c r="J11">
-        <v>0.9862775623858674</v>
+        <v>0.9862775623858657</v>
       </c>
       <c r="K11">
-        <v>0.9976327419390468</v>
+        <v>0.9976327419390453</v>
       </c>
       <c r="L11">
-        <v>0.9400047909712196</v>
+        <v>0.9400047909712171</v>
       </c>
       <c r="M11">
-        <v>0.9758119540790969</v>
+        <v>0.9758119540790953</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9517302118230406</v>
+        <v>0.9517302118230392</v>
       </c>
       <c r="D12">
-        <v>0.9798369464021938</v>
+        <v>0.9798369464021923</v>
       </c>
       <c r="E12">
-        <v>0.9204516410720048</v>
+        <v>0.9204516410720026</v>
       </c>
       <c r="F12">
-        <v>0.956972465904871</v>
+        <v>0.9569724659048693</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025055773135989</v>
+        <v>1.025055773135988</v>
       </c>
       <c r="J12">
-        <v>0.9837278711309543</v>
+        <v>0.9837278711309525</v>
       </c>
       <c r="K12">
-        <v>0.9953609092789395</v>
+        <v>0.9953609092789381</v>
       </c>
       <c r="L12">
-        <v>0.9372798965901483</v>
+        <v>0.9372798965901462</v>
       </c>
       <c r="M12">
-        <v>0.9729731928758913</v>
+        <v>0.9729731928758895</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9524151306503728</v>
+        <v>0.9524151306503715</v>
       </c>
       <c r="D13">
-        <v>0.9803842821028271</v>
+        <v>0.9803842821028261</v>
       </c>
       <c r="E13">
-        <v>0.9211065730999572</v>
+        <v>0.9211065730999557</v>
       </c>
       <c r="F13">
-        <v>0.9576476584599417</v>
+        <v>0.9576476584599405</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025347533666465</v>
+        <v>1.025347533666464</v>
       </c>
       <c r="J13">
-        <v>0.9842788431229091</v>
+        <v>0.984278843122908</v>
       </c>
       <c r="K13">
-        <v>0.995851856658915</v>
+        <v>0.9958518566589141</v>
       </c>
       <c r="L13">
-        <v>0.9378694419692872</v>
+        <v>0.9378694419692857</v>
       </c>
       <c r="M13">
-        <v>0.9735869336049883</v>
+        <v>0.9735869336049872</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9546404591872546</v>
+        <v>0.9546404591872525</v>
       </c>
       <c r="D14">
-        <v>0.9821628215958651</v>
+        <v>0.9821628215958635</v>
       </c>
       <c r="E14">
-        <v>0.9232317046906201</v>
+        <v>0.9232317046906189</v>
       </c>
       <c r="F14">
-        <v>0.959840216839544</v>
+        <v>0.959840216839542</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026294824904588</v>
+        <v>1.026294824904587</v>
       </c>
       <c r="J14">
-        <v>0.9860686103161439</v>
+        <v>0.986068610316142</v>
       </c>
       <c r="K14">
-        <v>0.9974465694238253</v>
+        <v>0.9974465694238237</v>
       </c>
       <c r="L14">
-        <v>0.939781797012449</v>
+        <v>0.9397817970124476</v>
       </c>
       <c r="M14">
-        <v>0.9755794461540241</v>
+        <v>0.975579446154022</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9559974509497831</v>
+        <v>0.9559974509497842</v>
       </c>
       <c r="D15">
-        <v>0.9832475296787577</v>
+        <v>0.9832475296787586</v>
       </c>
       <c r="E15">
-        <v>0.9245255254738183</v>
+        <v>0.9245255254738188</v>
       </c>
       <c r="F15">
-        <v>0.9611763530582148</v>
+        <v>0.9611763530582157</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.02687198121538</v>
       </c>
       <c r="J15">
-        <v>0.9871597232884557</v>
+        <v>0.9871597232884567</v>
       </c>
       <c r="K15">
-        <v>0.9984187140731134</v>
+        <v>0.9984187140731141</v>
       </c>
       <c r="L15">
-        <v>0.9409456131942846</v>
+        <v>0.940945613194285</v>
       </c>
       <c r="M15">
-        <v>0.9767933017136082</v>
+        <v>0.9767933017136088</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9636929409442099</v>
+        <v>0.9636929409442104</v>
       </c>
       <c r="D16">
-        <v>0.9894011714394941</v>
+        <v>0.9894011714394946</v>
       </c>
       <c r="E16">
-        <v>0.9318333067157138</v>
+        <v>0.9318333067157148</v>
       </c>
       <c r="F16">
-        <v>0.9687412448647539</v>
+        <v>0.9687412448647544</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.030137606107185</v>
       </c>
       <c r="J16">
-        <v>0.9933433050462493</v>
+        <v>0.9933433050462497</v>
       </c>
       <c r="K16">
         <v>1.003927215477998</v>
       </c>
       <c r="L16">
-        <v>0.9475122947673905</v>
+        <v>0.9475122947673914</v>
       </c>
       <c r="M16">
-        <v>0.9836603762137553</v>
+        <v>0.9836603762137559</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9683539777995781</v>
+        <v>0.9683539777995762</v>
       </c>
       <c r="D17">
-        <v>0.9931301044435453</v>
+        <v>0.9931301044435435</v>
       </c>
       <c r="E17">
-        <v>0.9362353274337936</v>
+        <v>0.9362353274337921</v>
       </c>
       <c r="F17">
-        <v>0.9733131483544772</v>
+        <v>0.9733131483544755</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032109070102119</v>
+        <v>1.032109070102118</v>
       </c>
       <c r="J17">
-        <v>0.9970850370385375</v>
+        <v>0.9970850370385358</v>
       </c>
       <c r="K17">
-        <v>1.007259669654213</v>
+        <v>1.007259669654212</v>
       </c>
       <c r="L17">
-        <v>0.951462064244211</v>
+        <v>0.9514620642442093</v>
       </c>
       <c r="M17">
-        <v>0.9878058540122464</v>
+        <v>0.9878058540122445</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9710172957754061</v>
+        <v>0.9710172957754069</v>
       </c>
       <c r="D18">
-        <v>0.995261375161099</v>
+        <v>0.9952613751610992</v>
       </c>
       <c r="E18">
-        <v>0.9387424987143713</v>
+        <v>0.938742498714372</v>
       </c>
       <c r="F18">
-        <v>0.9759221894684713</v>
+        <v>0.975922189468472</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.033233240510554</v>
       </c>
       <c r="J18">
-        <v>0.9992217897931486</v>
+        <v>0.999221789793149</v>
       </c>
       <c r="K18">
         <v>1.009162407843887</v>
       </c>
       <c r="L18">
-        <v>0.9537095978567569</v>
+        <v>0.9537095978567575</v>
       </c>
       <c r="M18">
-        <v>0.9901698964868357</v>
+        <v>0.9901698964868363</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9719164120275869</v>
+        <v>0.9719164120275889</v>
       </c>
       <c r="D19">
-        <v>0.9959809637513115</v>
+        <v>0.9959809637513134</v>
       </c>
       <c r="E19">
-        <v>0.9395875663725741</v>
+        <v>0.9395875663725755</v>
       </c>
       <c r="F19">
-        <v>0.9768024368870809</v>
+        <v>0.976802436887083</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033612357719091</v>
+        <v>1.033612357719092</v>
       </c>
       <c r="J19">
-        <v>0.9999429259681457</v>
+        <v>0.9999429259681476</v>
       </c>
       <c r="K19">
-        <v>1.009804515401628</v>
+        <v>1.00980451540163</v>
       </c>
       <c r="L19">
-        <v>0.9544668061315867</v>
+        <v>0.954466806131588</v>
       </c>
       <c r="M19">
-        <v>0.9909672084730135</v>
+        <v>0.9909672084730156</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9678597158782568</v>
+        <v>0.9678597158782555</v>
       </c>
       <c r="D20">
-        <v>0.992734624135499</v>
+        <v>0.9927346241354981</v>
       </c>
       <c r="E20">
-        <v>0.9357693925572536</v>
+        <v>0.9357693925572532</v>
       </c>
       <c r="F20">
-        <v>0.9728286925386238</v>
+        <v>0.972828692538623</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03190025607743</v>
+        <v>1.031900256077429</v>
       </c>
       <c r="J20">
-        <v>0.9966883922721924</v>
+        <v>0.9966883922721913</v>
       </c>
       <c r="K20">
-        <v>1.006906440893465</v>
+        <v>1.006906440893464</v>
       </c>
       <c r="L20">
-        <v>0.9510442138100026</v>
+        <v>0.9510442138100023</v>
       </c>
       <c r="M20">
-        <v>0.9873667568037749</v>
+        <v>0.9873667568037742</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9539881260881689</v>
+        <v>0.9539881260881713</v>
       </c>
       <c r="D21">
-        <v>0.9816414250904497</v>
+        <v>0.981641425090452</v>
       </c>
       <c r="E21">
-        <v>0.9226091812448322</v>
+        <v>0.9226091812448343</v>
       </c>
       <c r="F21">
-        <v>0.95919767465491</v>
+        <v>0.9591976746549125</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026017239750083</v>
+        <v>1.026017239750084</v>
       </c>
       <c r="J21">
-        <v>0.985544015627711</v>
+        <v>0.9855440156277132</v>
       </c>
       <c r="K21">
-        <v>0.9969791582365147</v>
+        <v>0.9969791582365169</v>
       </c>
       <c r="L21">
-        <v>0.9392217001874862</v>
+        <v>0.9392217001874883</v>
       </c>
       <c r="M21">
-        <v>0.974995607085457</v>
+        <v>0.9749956070854595</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9446621784570068</v>
+        <v>0.9446621784570078</v>
       </c>
       <c r="D22">
-        <v>0.9741906662043663</v>
+        <v>0.9741906662043675</v>
       </c>
       <c r="E22">
-        <v>0.9136694315523208</v>
+        <v>0.9136694315523232</v>
       </c>
       <c r="F22">
-        <v>0.9499947679981808</v>
+        <v>0.9499947679981827</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.022039642881049</v>
       </c>
       <c r="J22">
-        <v>0.9780391320595834</v>
+        <v>0.9780391320595844</v>
       </c>
       <c r="K22">
-        <v>0.990291355760486</v>
+        <v>0.990291355760487</v>
       </c>
       <c r="L22">
-        <v>0.9311697605957145</v>
+        <v>0.9311697605957171</v>
       </c>
       <c r="M22">
-        <v>0.9666264784331636</v>
+        <v>0.9666264784331653</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9496692684747317</v>
+        <v>0.9496692684747292</v>
       </c>
       <c r="D23">
-        <v>0.9781901944124735</v>
+        <v>0.9781901944124715</v>
       </c>
       <c r="E23">
-        <v>0.91847849999539</v>
+        <v>0.9184784999953888</v>
       </c>
       <c r="F23">
-        <v>0.9549397605239148</v>
+        <v>0.9549397605239133</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024177298331097</v>
+        <v>1.024177298331096</v>
       </c>
       <c r="J23">
-        <v>0.9820696663444393</v>
+        <v>0.9820696663444373</v>
       </c>
       <c r="K23">
-        <v>0.9938832941623874</v>
+        <v>0.9938832941623859</v>
       </c>
       <c r="L23">
-        <v>0.9355032220944878</v>
+        <v>0.9355032220944866</v>
       </c>
       <c r="M23">
-        <v>0.9711250656151709</v>
+        <v>0.9711250656151695</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9680832216567817</v>
+        <v>0.9680832216567827</v>
       </c>
       <c r="D24">
-        <v>0.9929134590432646</v>
+        <v>0.9929134590432657</v>
       </c>
       <c r="E24">
-        <v>0.9359801140706844</v>
+        <v>0.9359801140706855</v>
       </c>
       <c r="F24">
-        <v>0.9730477743527162</v>
+        <v>0.9730477743527178</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031994689252296</v>
+        <v>1.031994689252297</v>
       </c>
       <c r="J24">
-        <v>0.9968677594366422</v>
+        <v>0.9968677594366432</v>
       </c>
       <c r="K24">
-        <v>1.007066175773029</v>
+        <v>1.00706617577303</v>
       </c>
       <c r="L24">
-        <v>0.9512331952941969</v>
+        <v>0.9512331952941983</v>
       </c>
       <c r="M24">
-        <v>0.9875653315756502</v>
+        <v>0.9875653315756519</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.987304465311635</v>
+        <v>0.9873044653116352</v>
       </c>
       <c r="D25">
         <v>1.008302542008169</v>
       </c>
       <c r="E25">
-        <v>0.9539462424366892</v>
+        <v>0.9539462424366899</v>
       </c>
       <c r="F25">
-        <v>0.9918254484243</v>
+        <v>0.9918254484243002</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,13 +1313,13 @@
         <v>1.040067473510535</v>
       </c>
       <c r="J25">
-        <v>1.012266770991795</v>
+        <v>1.012266770991796</v>
       </c>
       <c r="K25">
         <v>1.020773324548871</v>
       </c>
       <c r="L25">
-        <v>0.9673041918444818</v>
+        <v>0.9673041918444824</v>
       </c>
       <c r="M25">
         <v>1.004552003249225</v>

--- a/Code/Results/Cases/Case_2_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_29/res_bus/vm_pu.xlsx
@@ -427,7 +427,7 @@
         <v>1.019516225446043</v>
       </c>
       <c r="E2">
-        <v>0.9668322523550441</v>
+        <v>0.9668322523550444</v>
       </c>
       <c r="F2">
         <v>1.005420037016763</v>
@@ -445,7 +445,7 @@
         <v>1.030710202427783</v>
       </c>
       <c r="L2">
-        <v>0.9787738581262373</v>
+        <v>0.9787738581262376</v>
       </c>
       <c r="M2">
         <v>1.016804375054126</v>
@@ -465,10 +465,10 @@
         <v>1.027155045155127</v>
       </c>
       <c r="E3">
-        <v>0.9755109573339387</v>
+        <v>0.9755109573339391</v>
       </c>
       <c r="F3">
-        <v>1.014640701138417</v>
+        <v>1.014640701138418</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -483,10 +483,10 @@
         <v>1.037451873129952</v>
       </c>
       <c r="L3">
-        <v>0.9864670755147744</v>
+        <v>0.9864670755147751</v>
       </c>
       <c r="M3">
-        <v>1.025089616945016</v>
+        <v>1.025089616945017</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016741671317482</v>
+        <v>1.016741671317484</v>
       </c>
       <c r="D4">
-        <v>1.031894083077218</v>
+        <v>1.03189408307722</v>
       </c>
       <c r="E4">
-        <v>0.9808541218773666</v>
+        <v>0.9808541218773671</v>
       </c>
       <c r="F4">
-        <v>1.020345401211362</v>
+        <v>1.020345401211364</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052202089624263</v>
+        <v>1.052202089624264</v>
       </c>
       <c r="J4">
-        <v>1.035726606709479</v>
+        <v>1.035726606709481</v>
       </c>
       <c r="K4">
-        <v>1.041622230130078</v>
+        <v>1.04162223013008</v>
       </c>
       <c r="L4">
-        <v>0.9911892484772648</v>
+        <v>0.9911892484772651</v>
       </c>
       <c r="M4">
-        <v>1.030204323114904</v>
+        <v>1.030204323114906</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019170912983615</v>
+        <v>1.019170912983616</v>
       </c>
       <c r="D5">
         <v>1.033841299887521</v>
       </c>
       <c r="E5">
-        <v>0.9830403379778675</v>
+        <v>0.9830403379778681</v>
       </c>
       <c r="F5">
         <v>1.022685986814035</v>
@@ -553,13 +553,13 @@
         <v>1.053188076212976</v>
       </c>
       <c r="J5">
-        <v>1.037654297202174</v>
+        <v>1.037654297202175</v>
       </c>
       <c r="K5">
-        <v>1.043332947022046</v>
+        <v>1.043332947022047</v>
       </c>
       <c r="L5">
-        <v>0.9931179927063063</v>
+        <v>0.9931179927063064</v>
       </c>
       <c r="M5">
         <v>1.032300174832636</v>
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019575625100675</v>
+        <v>1.019575625100674</v>
       </c>
       <c r="D6">
-        <v>1.034165702236274</v>
+        <v>1.034165702236273</v>
       </c>
       <c r="E6">
-        <v>0.9834040302377171</v>
+        <v>0.9834040302377162</v>
       </c>
       <c r="F6">
-        <v>1.023075732416797</v>
+        <v>1.023075732416795</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053352078483533</v>
+        <v>1.053352078483532</v>
       </c>
       <c r="J6">
-        <v>1.037975309373545</v>
+        <v>1.037975309373544</v>
       </c>
       <c r="K6">
-        <v>1.043617783917354</v>
+        <v>1.043617783917353</v>
       </c>
       <c r="L6">
-        <v>0.9934386543059652</v>
+        <v>0.993438654305964</v>
       </c>
       <c r="M6">
-        <v>1.032649012401647</v>
+        <v>1.032649012401646</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -614,10 +614,10 @@
         <v>1.016774345944625</v>
       </c>
       <c r="D7">
-        <v>1.031920274437213</v>
+        <v>1.031920274437212</v>
       </c>
       <c r="E7">
-        <v>0.9808835638051328</v>
+        <v>0.9808835638051323</v>
       </c>
       <c r="F7">
         <v>1.020376896736207</v>
@@ -635,10 +635,10 @@
         <v>1.041645251575034</v>
       </c>
       <c r="L7">
-        <v>0.9912152364264772</v>
+        <v>0.9912152364264768</v>
       </c>
       <c r="M7">
-        <v>1.030232535970507</v>
+        <v>1.030232535970506</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004575878469079</v>
+        <v>1.004575878469077</v>
       </c>
       <c r="D8">
-        <v>1.022142388786711</v>
+        <v>1.022142388786709</v>
       </c>
       <c r="E8">
-        <v>0.9698250518779016</v>
+        <v>0.9698250518779004</v>
       </c>
       <c r="F8">
-        <v>1.008593601265186</v>
+        <v>1.008593601265185</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0472261713158</v>
+        <v>1.047226171315799</v>
       </c>
       <c r="J8">
-        <v>1.026052171809416</v>
+        <v>1.026052171809414</v>
       </c>
       <c r="K8">
-        <v>1.033030553202713</v>
+        <v>1.033030553202711</v>
       </c>
       <c r="L8">
-        <v>0.9814298933969337</v>
+        <v>0.9814298933969323</v>
       </c>
       <c r="M8">
-        <v>1.019658411535167</v>
+        <v>1.019658411535165</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9808765982494887</v>
+        <v>0.9808765982494879</v>
       </c>
       <c r="D9">
-        <v>1.003154296240525</v>
+        <v>1.003154296240524</v>
       </c>
       <c r="E9">
-        <v>0.947972363480307</v>
+        <v>0.9479723634803062</v>
       </c>
       <c r="F9">
-        <v>0.9855596853566284</v>
+        <v>0.9855596853566277</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037379028412953</v>
+        <v>1.037379028412952</v>
       </c>
       <c r="J9">
-        <v>1.007123208653632</v>
+        <v>1.007123208653631</v>
       </c>
       <c r="K9">
-        <v>1.016196403653192</v>
+        <v>1.016196403653191</v>
       </c>
       <c r="L9">
-        <v>0.9619699976052568</v>
+        <v>0.9619699976052561</v>
       </c>
       <c r="M9">
-        <v>0.9988914735464939</v>
+        <v>0.9988914735464931</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -728,13 +728,13 @@
         <v>0.963158393492716</v>
       </c>
       <c r="D10">
-        <v>0.9889736041377046</v>
+        <v>0.9889736041377047</v>
       </c>
       <c r="E10">
-        <v>0.9313273017731641</v>
+        <v>0.9313273017731636</v>
       </c>
       <c r="F10">
-        <v>0.9682164395897779</v>
+        <v>0.9682164395897778</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.02991118938865</v>
       </c>
       <c r="J10">
-        <v>0.9929140110646901</v>
+        <v>0.9929140110646902</v>
       </c>
       <c r="K10">
         <v>1.003544838954587</v>
       </c>
       <c r="L10">
-        <v>0.9470579878520199</v>
+        <v>0.9470579878520193</v>
       </c>
       <c r="M10">
-        <v>0.9831842893714834</v>
+        <v>0.9831842893714832</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9549003076969771</v>
+        <v>0.9549003076969789</v>
       </c>
       <c r="D11">
-        <v>0.9823705212539164</v>
+        <v>0.9823705212539181</v>
       </c>
       <c r="E11">
-        <v>0.9234795779409853</v>
+        <v>0.9234795779409877</v>
       </c>
       <c r="F11">
-        <v>0.960096122749733</v>
+        <v>0.9600961227497348</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026405373152298</v>
+        <v>1.026405373152299</v>
       </c>
       <c r="J11">
-        <v>0.9862775623858657</v>
+        <v>0.9862775623858674</v>
       </c>
       <c r="K11">
-        <v>0.9976327419390453</v>
+        <v>0.9976327419390468</v>
       </c>
       <c r="L11">
-        <v>0.9400047909712171</v>
+        <v>0.9400047909712196</v>
       </c>
       <c r="M11">
-        <v>0.9758119540790953</v>
+        <v>0.9758119540790969</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9517302118230392</v>
+        <v>0.9517302118230406</v>
       </c>
       <c r="D12">
-        <v>0.9798369464021923</v>
+        <v>0.9798369464021938</v>
       </c>
       <c r="E12">
-        <v>0.9204516410720026</v>
+        <v>0.9204516410720048</v>
       </c>
       <c r="F12">
-        <v>0.9569724659048693</v>
+        <v>0.956972465904871</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025055773135988</v>
+        <v>1.025055773135989</v>
       </c>
       <c r="J12">
-        <v>0.9837278711309525</v>
+        <v>0.9837278711309543</v>
       </c>
       <c r="K12">
-        <v>0.9953609092789381</v>
+        <v>0.9953609092789395</v>
       </c>
       <c r="L12">
-        <v>0.9372798965901462</v>
+        <v>0.9372798965901483</v>
       </c>
       <c r="M12">
-        <v>0.9729731928758895</v>
+        <v>0.9729731928758913</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9524151306503715</v>
+        <v>0.9524151306503728</v>
       </c>
       <c r="D13">
-        <v>0.9803842821028261</v>
+        <v>0.9803842821028271</v>
       </c>
       <c r="E13">
-        <v>0.9211065730999557</v>
+        <v>0.9211065730999572</v>
       </c>
       <c r="F13">
-        <v>0.9576476584599405</v>
+        <v>0.9576476584599417</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025347533666464</v>
+        <v>1.025347533666465</v>
       </c>
       <c r="J13">
-        <v>0.984278843122908</v>
+        <v>0.9842788431229091</v>
       </c>
       <c r="K13">
-        <v>0.9958518566589141</v>
+        <v>0.995851856658915</v>
       </c>
       <c r="L13">
-        <v>0.9378694419692857</v>
+        <v>0.9378694419692872</v>
       </c>
       <c r="M13">
-        <v>0.9735869336049872</v>
+        <v>0.9735869336049883</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9546404591872525</v>
+        <v>0.9546404591872546</v>
       </c>
       <c r="D14">
-        <v>0.9821628215958635</v>
+        <v>0.9821628215958651</v>
       </c>
       <c r="E14">
-        <v>0.9232317046906189</v>
+        <v>0.9232317046906201</v>
       </c>
       <c r="F14">
-        <v>0.959840216839542</v>
+        <v>0.959840216839544</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026294824904587</v>
+        <v>1.026294824904588</v>
       </c>
       <c r="J14">
-        <v>0.986068610316142</v>
+        <v>0.9860686103161439</v>
       </c>
       <c r="K14">
-        <v>0.9974465694238237</v>
+        <v>0.9974465694238253</v>
       </c>
       <c r="L14">
-        <v>0.9397817970124476</v>
+        <v>0.939781797012449</v>
       </c>
       <c r="M14">
-        <v>0.975579446154022</v>
+        <v>0.9755794461540241</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9559974509497842</v>
+        <v>0.9559974509497831</v>
       </c>
       <c r="D15">
-        <v>0.9832475296787586</v>
+        <v>0.9832475296787577</v>
       </c>
       <c r="E15">
-        <v>0.9245255254738188</v>
+        <v>0.9245255254738183</v>
       </c>
       <c r="F15">
-        <v>0.9611763530582157</v>
+        <v>0.9611763530582148</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.02687198121538</v>
       </c>
       <c r="J15">
-        <v>0.9871597232884567</v>
+        <v>0.9871597232884557</v>
       </c>
       <c r="K15">
-        <v>0.9984187140731141</v>
+        <v>0.9984187140731134</v>
       </c>
       <c r="L15">
-        <v>0.940945613194285</v>
+        <v>0.9409456131942846</v>
       </c>
       <c r="M15">
-        <v>0.9767933017136088</v>
+        <v>0.9767933017136082</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9636929409442104</v>
+        <v>0.9636929409442099</v>
       </c>
       <c r="D16">
-        <v>0.9894011714394946</v>
+        <v>0.9894011714394941</v>
       </c>
       <c r="E16">
-        <v>0.9318333067157148</v>
+        <v>0.9318333067157138</v>
       </c>
       <c r="F16">
-        <v>0.9687412448647544</v>
+        <v>0.9687412448647539</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.030137606107185</v>
       </c>
       <c r="J16">
-        <v>0.9933433050462497</v>
+        <v>0.9933433050462493</v>
       </c>
       <c r="K16">
         <v>1.003927215477998</v>
       </c>
       <c r="L16">
-        <v>0.9475122947673914</v>
+        <v>0.9475122947673905</v>
       </c>
       <c r="M16">
-        <v>0.9836603762137559</v>
+        <v>0.9836603762137553</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9683539777995762</v>
+        <v>0.9683539777995781</v>
       </c>
       <c r="D17">
-        <v>0.9931301044435435</v>
+        <v>0.9931301044435453</v>
       </c>
       <c r="E17">
-        <v>0.9362353274337921</v>
+        <v>0.9362353274337936</v>
       </c>
       <c r="F17">
-        <v>0.9733131483544755</v>
+        <v>0.9733131483544772</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032109070102118</v>
+        <v>1.032109070102119</v>
       </c>
       <c r="J17">
-        <v>0.9970850370385358</v>
+        <v>0.9970850370385375</v>
       </c>
       <c r="K17">
-        <v>1.007259669654212</v>
+        <v>1.007259669654213</v>
       </c>
       <c r="L17">
-        <v>0.9514620642442093</v>
+        <v>0.951462064244211</v>
       </c>
       <c r="M17">
-        <v>0.9878058540122445</v>
+        <v>0.9878058540122464</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9710172957754069</v>
+        <v>0.9710172957754061</v>
       </c>
       <c r="D18">
-        <v>0.9952613751610992</v>
+        <v>0.995261375161099</v>
       </c>
       <c r="E18">
-        <v>0.938742498714372</v>
+        <v>0.9387424987143713</v>
       </c>
       <c r="F18">
-        <v>0.975922189468472</v>
+        <v>0.9759221894684713</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.033233240510554</v>
       </c>
       <c r="J18">
-        <v>0.999221789793149</v>
+        <v>0.9992217897931486</v>
       </c>
       <c r="K18">
         <v>1.009162407843887</v>
       </c>
       <c r="L18">
-        <v>0.9537095978567575</v>
+        <v>0.9537095978567569</v>
       </c>
       <c r="M18">
-        <v>0.9901698964868363</v>
+        <v>0.9901698964868357</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9719164120275889</v>
+        <v>0.9719164120275869</v>
       </c>
       <c r="D19">
-        <v>0.9959809637513134</v>
+        <v>0.9959809637513115</v>
       </c>
       <c r="E19">
-        <v>0.9395875663725755</v>
+        <v>0.9395875663725741</v>
       </c>
       <c r="F19">
-        <v>0.976802436887083</v>
+        <v>0.9768024368870809</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033612357719092</v>
+        <v>1.033612357719091</v>
       </c>
       <c r="J19">
-        <v>0.9999429259681476</v>
+        <v>0.9999429259681457</v>
       </c>
       <c r="K19">
-        <v>1.00980451540163</v>
+        <v>1.009804515401628</v>
       </c>
       <c r="L19">
-        <v>0.954466806131588</v>
+        <v>0.9544668061315867</v>
       </c>
       <c r="M19">
-        <v>0.9909672084730156</v>
+        <v>0.9909672084730135</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9678597158782555</v>
+        <v>0.9678597158782568</v>
       </c>
       <c r="D20">
-        <v>0.9927346241354981</v>
+        <v>0.992734624135499</v>
       </c>
       <c r="E20">
-        <v>0.9357693925572532</v>
+        <v>0.9357693925572536</v>
       </c>
       <c r="F20">
-        <v>0.972828692538623</v>
+        <v>0.9728286925386238</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031900256077429</v>
+        <v>1.03190025607743</v>
       </c>
       <c r="J20">
-        <v>0.9966883922721913</v>
+        <v>0.9966883922721924</v>
       </c>
       <c r="K20">
-        <v>1.006906440893464</v>
+        <v>1.006906440893465</v>
       </c>
       <c r="L20">
-        <v>0.9510442138100023</v>
+        <v>0.9510442138100026</v>
       </c>
       <c r="M20">
-        <v>0.9873667568037742</v>
+        <v>0.9873667568037749</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9539881260881713</v>
+        <v>0.9539881260881689</v>
       </c>
       <c r="D21">
-        <v>0.981641425090452</v>
+        <v>0.9816414250904497</v>
       </c>
       <c r="E21">
-        <v>0.9226091812448343</v>
+        <v>0.9226091812448322</v>
       </c>
       <c r="F21">
-        <v>0.9591976746549125</v>
+        <v>0.95919767465491</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026017239750084</v>
+        <v>1.026017239750083</v>
       </c>
       <c r="J21">
-        <v>0.9855440156277132</v>
+        <v>0.985544015627711</v>
       </c>
       <c r="K21">
-        <v>0.9969791582365169</v>
+        <v>0.9969791582365147</v>
       </c>
       <c r="L21">
-        <v>0.9392217001874883</v>
+        <v>0.9392217001874862</v>
       </c>
       <c r="M21">
-        <v>0.9749956070854595</v>
+        <v>0.974995607085457</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9446621784570078</v>
+        <v>0.9446621784570068</v>
       </c>
       <c r="D22">
-        <v>0.9741906662043675</v>
+        <v>0.9741906662043663</v>
       </c>
       <c r="E22">
-        <v>0.9136694315523232</v>
+        <v>0.9136694315523208</v>
       </c>
       <c r="F22">
-        <v>0.9499947679981827</v>
+        <v>0.9499947679981808</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.022039642881049</v>
       </c>
       <c r="J22">
-        <v>0.9780391320595844</v>
+        <v>0.9780391320595834</v>
       </c>
       <c r="K22">
-        <v>0.990291355760487</v>
+        <v>0.990291355760486</v>
       </c>
       <c r="L22">
-        <v>0.9311697605957171</v>
+        <v>0.9311697605957145</v>
       </c>
       <c r="M22">
-        <v>0.9666264784331653</v>
+        <v>0.9666264784331636</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9496692684747292</v>
+        <v>0.9496692684747317</v>
       </c>
       <c r="D23">
-        <v>0.9781901944124715</v>
+        <v>0.9781901944124735</v>
       </c>
       <c r="E23">
-        <v>0.9184784999953888</v>
+        <v>0.91847849999539</v>
       </c>
       <c r="F23">
-        <v>0.9549397605239133</v>
+        <v>0.9549397605239148</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024177298331096</v>
+        <v>1.024177298331097</v>
       </c>
       <c r="J23">
-        <v>0.9820696663444373</v>
+        <v>0.9820696663444393</v>
       </c>
       <c r="K23">
-        <v>0.9938832941623859</v>
+        <v>0.9938832941623874</v>
       </c>
       <c r="L23">
-        <v>0.9355032220944866</v>
+        <v>0.9355032220944878</v>
       </c>
       <c r="M23">
-        <v>0.9711250656151695</v>
+        <v>0.9711250656151709</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9680832216567827</v>
+        <v>0.9680832216567817</v>
       </c>
       <c r="D24">
-        <v>0.9929134590432657</v>
+        <v>0.9929134590432646</v>
       </c>
       <c r="E24">
-        <v>0.9359801140706855</v>
+        <v>0.9359801140706844</v>
       </c>
       <c r="F24">
-        <v>0.9730477743527178</v>
+        <v>0.9730477743527162</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031994689252297</v>
+        <v>1.031994689252296</v>
       </c>
       <c r="J24">
-        <v>0.9968677594366432</v>
+        <v>0.9968677594366422</v>
       </c>
       <c r="K24">
-        <v>1.00706617577303</v>
+        <v>1.007066175773029</v>
       </c>
       <c r="L24">
-        <v>0.9512331952941983</v>
+        <v>0.9512331952941969</v>
       </c>
       <c r="M24">
-        <v>0.9875653315756519</v>
+        <v>0.9875653315756502</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9873044653116352</v>
+        <v>0.987304465311635</v>
       </c>
       <c r="D25">
         <v>1.008302542008169</v>
       </c>
       <c r="E25">
-        <v>0.9539462424366899</v>
+        <v>0.9539462424366892</v>
       </c>
       <c r="F25">
-        <v>0.9918254484243002</v>
+        <v>0.9918254484243</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,13 +1313,13 @@
         <v>1.040067473510535</v>
       </c>
       <c r="J25">
-        <v>1.012266770991796</v>
+        <v>1.012266770991795</v>
       </c>
       <c r="K25">
         <v>1.020773324548871</v>
       </c>
       <c r="L25">
-        <v>0.9673041918444824</v>
+        <v>0.9673041918444818</v>
       </c>
       <c r="M25">
         <v>1.004552003249225</v>

--- a/Code/Results/Cases/Case_2_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_29/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001299259613272</v>
+        <v>1.004509812368119</v>
       </c>
       <c r="D2">
-        <v>1.019516225446043</v>
+        <v>1.02212826759025</v>
       </c>
       <c r="E2">
-        <v>0.9668322523550444</v>
+        <v>0.9678738628659335</v>
       </c>
       <c r="F2">
-        <v>1.005420037016763</v>
+        <v>1.007719343076815</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045876016517602</v>
+        <v>1.047380967129238</v>
       </c>
       <c r="J2">
-        <v>1.023441179373814</v>
+        <v>1.026556467365159</v>
       </c>
       <c r="K2">
-        <v>1.030710202427783</v>
+        <v>1.033287693649078</v>
       </c>
       <c r="L2">
-        <v>0.9787738581262376</v>
+        <v>0.9797996829366106</v>
       </c>
       <c r="M2">
-        <v>1.016804375054126</v>
+        <v>1.019072172629509</v>
+      </c>
+      <c r="N2">
+        <v>1.028014295296491</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.010829581012749</v>
+        <v>1.014011821699698</v>
       </c>
       <c r="D3">
-        <v>1.027155045155127</v>
+        <v>1.029747492346541</v>
       </c>
       <c r="E3">
-        <v>0.9755109573339391</v>
+        <v>0.9765301745652604</v>
       </c>
       <c r="F3">
-        <v>1.014640701138418</v>
+        <v>1.016913708491381</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049791609136464</v>
+        <v>1.051286911480686</v>
       </c>
       <c r="J3">
-        <v>1.031029312103679</v>
+        <v>1.034127664159245</v>
       </c>
       <c r="K3">
-        <v>1.037451873129952</v>
+        <v>1.0400133871227</v>
       </c>
       <c r="L3">
-        <v>0.9864670755147751</v>
+        <v>0.987472433090997</v>
       </c>
       <c r="M3">
-        <v>1.025089616945017</v>
+        <v>1.027334654253624</v>
+      </c>
+      <c r="N3">
+        <v>1.035596244058451</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016741671317484</v>
+        <v>1.019907878345604</v>
       </c>
       <c r="D4">
-        <v>1.03189408307722</v>
+        <v>1.034475533739412</v>
       </c>
       <c r="E4">
-        <v>0.9808541218773671</v>
+        <v>0.9818608256746267</v>
       </c>
       <c r="F4">
-        <v>1.020345401211364</v>
+        <v>1.022603591489225</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052202089624264</v>
+        <v>1.053692100625873</v>
       </c>
       <c r="J4">
-        <v>1.035726606709481</v>
+        <v>1.038815692748268</v>
       </c>
       <c r="K4">
-        <v>1.04162223013008</v>
+        <v>1.044174940168473</v>
       </c>
       <c r="L4">
-        <v>0.9911892484772651</v>
+        <v>0.99218321946229</v>
       </c>
       <c r="M4">
-        <v>1.030204323114906</v>
+        <v>1.032436655517007</v>
+      </c>
+      <c r="N4">
+        <v>1.040290930185796</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.019170912983616</v>
+        <v>1.022330859497061</v>
       </c>
       <c r="D5">
-        <v>1.033841299887521</v>
+        <v>1.036418480991617</v>
       </c>
       <c r="E5">
-        <v>0.9830403379778681</v>
+        <v>0.9840421921906894</v>
       </c>
       <c r="F5">
-        <v>1.022685986814035</v>
+        <v>1.024938408165501</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053188076212976</v>
+        <v>1.054676062930715</v>
       </c>
       <c r="J5">
-        <v>1.037654297202175</v>
+        <v>1.040739842207498</v>
       </c>
       <c r="K5">
-        <v>1.043332947022047</v>
+        <v>1.045882277759468</v>
       </c>
       <c r="L5">
-        <v>0.9931179927063064</v>
+        <v>0.9941075633549202</v>
       </c>
       <c r="M5">
-        <v>1.032300174832636</v>
+        <v>1.034527589155273</v>
+      </c>
+      <c r="N5">
+        <v>1.042217812157961</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.019575625100674</v>
+        <v>1.022734546864819</v>
       </c>
       <c r="D6">
-        <v>1.034165702236273</v>
+        <v>1.036742185914205</v>
       </c>
       <c r="E6">
-        <v>0.9834040302377162</v>
+        <v>0.9844050927042866</v>
       </c>
       <c r="F6">
-        <v>1.023075732416795</v>
+        <v>1.025327210420119</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053352078483532</v>
+        <v>1.054839736345099</v>
       </c>
       <c r="J6">
-        <v>1.037975309373544</v>
+        <v>1.041060279301774</v>
       </c>
       <c r="K6">
-        <v>1.043617783917353</v>
+        <v>1.046166564963895</v>
       </c>
       <c r="L6">
-        <v>0.993438654305964</v>
+        <v>0.9944275073083411</v>
       </c>
       <c r="M6">
-        <v>1.032649012401646</v>
+        <v>1.034875624199426</v>
+      </c>
+      <c r="N6">
+        <v>1.042538704309665</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016774345944625</v>
+        <v>1.019940467513064</v>
       </c>
       <c r="D7">
-        <v>1.031920274437212</v>
+        <v>1.034501666719447</v>
       </c>
       <c r="E7">
-        <v>0.9808835638051323</v>
+        <v>0.9818902012599836</v>
       </c>
       <c r="F7">
-        <v>1.020376896736207</v>
+        <v>1.022635008199899</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052215369420676</v>
+        <v>1.053705352619813</v>
       </c>
       <c r="J7">
-        <v>1.035752544728528</v>
+        <v>1.038841582119479</v>
       </c>
       <c r="K7">
-        <v>1.041645251575034</v>
+        <v>1.044197915248098</v>
       </c>
       <c r="L7">
-        <v>0.9912152364264768</v>
+        <v>0.992209147163311</v>
       </c>
       <c r="M7">
-        <v>1.030232535970506</v>
+        <v>1.032464801066926</v>
+      </c>
+      <c r="N7">
+        <v>1.040316856322883</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.004575878469077</v>
+        <v>1.007776344994139</v>
       </c>
       <c r="D8">
-        <v>1.022142388786709</v>
+        <v>1.024747427430455</v>
       </c>
       <c r="E8">
-        <v>0.9698250518779004</v>
+        <v>0.9708586436991596</v>
       </c>
       <c r="F8">
-        <v>1.008593601265185</v>
+        <v>1.010883519753834</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047226171315799</v>
+        <v>1.048727645791588</v>
       </c>
       <c r="J8">
-        <v>1.026052171809414</v>
+        <v>1.029161351920958</v>
       </c>
       <c r="K8">
-        <v>1.033030553202711</v>
+        <v>1.035602296902513</v>
       </c>
       <c r="L8">
-        <v>0.9814298933969323</v>
+        <v>0.9824483779243031</v>
       </c>
       <c r="M8">
-        <v>1.019658411535165</v>
+        <v>1.021918057673674</v>
+      </c>
+      <c r="N8">
+        <v>1.030622879087142</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9808765982494879</v>
+        <v>0.9841589761635193</v>
       </c>
       <c r="D9">
-        <v>1.003154296240524</v>
+        <v>1.005816752004553</v>
       </c>
       <c r="E9">
-        <v>0.9479723634803062</v>
+        <v>0.9490722416081581</v>
       </c>
       <c r="F9">
-        <v>0.9855596853566277</v>
+        <v>0.9879263690990775</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037379028412952</v>
+        <v>1.038909644875919</v>
       </c>
       <c r="J9">
-        <v>1.007123208653631</v>
+        <v>1.010283796152734</v>
       </c>
       <c r="K9">
-        <v>1.016196403653191</v>
+        <v>1.018816156179525</v>
       </c>
       <c r="L9">
-        <v>0.9619699976052561</v>
+        <v>0.9630494147419449</v>
       </c>
       <c r="M9">
-        <v>0.9988914735464931</v>
+        <v>1.001218417728533</v>
+      </c>
+      <c r="N9">
+        <v>1.011718515024442</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.963158393492716</v>
+        <v>0.9665171715335465</v>
       </c>
       <c r="D10">
-        <v>0.9889736041377047</v>
+        <v>0.9916904067912484</v>
       </c>
       <c r="E10">
-        <v>0.9313273017731636</v>
+        <v>0.9324911405298987</v>
       </c>
       <c r="F10">
-        <v>0.9682164395897778</v>
+        <v>0.9706556896826948</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02991118938865</v>
+        <v>1.031470293040192</v>
       </c>
       <c r="J10">
-        <v>0.9929140110646902</v>
+        <v>0.9961252371644435</v>
       </c>
       <c r="K10">
-        <v>1.003544838954587</v>
+        <v>1.006211332011813</v>
       </c>
       <c r="L10">
-        <v>0.9470579878520193</v>
+        <v>0.9481965349526481</v>
       </c>
       <c r="M10">
-        <v>0.9831842893714832</v>
+        <v>0.9855757780018451</v>
+      </c>
+      <c r="N10">
+        <v>0.9975398492583786</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9549003076969789</v>
+        <v>0.9582998770376117</v>
       </c>
       <c r="D11">
-        <v>0.9823705212539181</v>
+        <v>0.9851165543219781</v>
       </c>
       <c r="E11">
-        <v>0.9234795779409877</v>
+        <v>0.9246783232102511</v>
       </c>
       <c r="F11">
-        <v>0.9600961227497348</v>
+        <v>0.962574460088599</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026405373152299</v>
+        <v>1.027980024649275</v>
       </c>
       <c r="J11">
-        <v>0.9862775623858674</v>
+        <v>0.9895165562629247</v>
       </c>
       <c r="K11">
-        <v>0.9976327419390468</v>
+        <v>1.000324716813828</v>
       </c>
       <c r="L11">
-        <v>0.9400047909712196</v>
+        <v>0.9411756807232821</v>
       </c>
       <c r="M11">
-        <v>0.9758119540790969</v>
+        <v>0.9782384489861684</v>
+      </c>
+      <c r="N11">
+        <v>0.9909217832719536</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9517302118230406</v>
+        <v>0.955146409919622</v>
       </c>
       <c r="D12">
-        <v>0.9798369464021938</v>
+        <v>0.9825949305189494</v>
       </c>
       <c r="E12">
-        <v>0.9204516410720048</v>
+        <v>0.9216647600976272</v>
       </c>
       <c r="F12">
-        <v>0.956972465904871</v>
+        <v>0.9594668025942881</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025055773135989</v>
+        <v>1.026636816783263</v>
       </c>
       <c r="J12">
-        <v>0.9837278711309543</v>
+        <v>0.9869783040880279</v>
       </c>
       <c r="K12">
-        <v>0.9953609092789395</v>
+        <v>0.9980633575359178</v>
       </c>
       <c r="L12">
-        <v>0.9372798965901483</v>
+        <v>0.9384641143134868</v>
       </c>
       <c r="M12">
-        <v>0.9729731928758913</v>
+        <v>0.975414054697318</v>
+      </c>
+      <c r="N12">
+        <v>0.9883799264878267</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9524151306503728</v>
+        <v>0.9558276885669803</v>
       </c>
       <c r="D13">
-        <v>0.9803842821028271</v>
+        <v>0.9831396484027584</v>
       </c>
       <c r="E13">
-        <v>0.9211065730999572</v>
+        <v>0.9223165385708162</v>
       </c>
       <c r="F13">
-        <v>0.9576476584599417</v>
+        <v>0.9601384895714112</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025347533666465</v>
+        <v>1.02692717554358</v>
       </c>
       <c r="J13">
-        <v>0.9842788431229091</v>
+        <v>0.9875267664595436</v>
       </c>
       <c r="K13">
-        <v>0.995851856658915</v>
+        <v>0.9985520082577539</v>
       </c>
       <c r="L13">
-        <v>0.9378694419692872</v>
+        <v>0.9390507351538473</v>
       </c>
       <c r="M13">
-        <v>0.9735869336049883</v>
+        <v>0.9760246457971442</v>
+      </c>
+      <c r="N13">
+        <v>0.9889291677388197</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9546404591872546</v>
+        <v>0.9580413706694582</v>
       </c>
       <c r="D14">
-        <v>0.9821628215958651</v>
+        <v>0.9849098185419315</v>
       </c>
       <c r="E14">
-        <v>0.9232317046906201</v>
+        <v>0.9244316070420467</v>
       </c>
       <c r="F14">
-        <v>0.959840216839544</v>
+        <v>0.9623198441347922</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.026294824904588</v>
+        <v>1.027869991235004</v>
       </c>
       <c r="J14">
-        <v>0.9860686103161439</v>
+        <v>0.9893085250405206</v>
       </c>
       <c r="K14">
-        <v>0.9974465694238253</v>
+        <v>1.000139387890341</v>
       </c>
       <c r="L14">
-        <v>0.939781797012449</v>
+        <v>0.9409537594712033</v>
       </c>
       <c r="M14">
-        <v>0.9755794461540241</v>
+        <v>0.9780070986380833</v>
+      </c>
+      <c r="N14">
+        <v>0.9907134566213521</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9559974509497831</v>
+        <v>0.9593913939186118</v>
       </c>
       <c r="D15">
-        <v>0.9832475296787577</v>
+        <v>0.9859895234931197</v>
       </c>
       <c r="E15">
-        <v>0.9245255254738183</v>
+        <v>0.9257194260296299</v>
       </c>
       <c r="F15">
-        <v>0.9611763530582148</v>
+        <v>0.9636492854528725</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02687198121538</v>
+        <v>1.028444476636161</v>
       </c>
       <c r="J15">
-        <v>0.9871597232884557</v>
+        <v>0.9903948616624959</v>
       </c>
       <c r="K15">
-        <v>0.9984187140731134</v>
+        <v>1.001107155955362</v>
       </c>
       <c r="L15">
-        <v>0.9409456131942846</v>
+        <v>0.9421120118984524</v>
       </c>
       <c r="M15">
-        <v>0.9767933017136082</v>
+        <v>0.9792149478563149</v>
+      </c>
+      <c r="N15">
+        <v>0.9918013359659352</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9636929409442099</v>
+        <v>0.9670491989438993</v>
       </c>
       <c r="D16">
-        <v>0.9894011714394941</v>
+        <v>0.9921161726107783</v>
       </c>
       <c r="E16">
-        <v>0.9318333067157138</v>
+        <v>0.9329950057647083</v>
       </c>
       <c r="F16">
-        <v>0.9687412448647539</v>
+        <v>0.9711780877945206</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030137606107185</v>
+        <v>1.031695755983386</v>
       </c>
       <c r="J16">
-        <v>0.9933433050462493</v>
+        <v>0.9965528304961587</v>
       </c>
       <c r="K16">
-        <v>1.003927215477998</v>
+        <v>1.006592144928776</v>
       </c>
       <c r="L16">
-        <v>0.9475122947673905</v>
+        <v>0.9486488606389175</v>
       </c>
       <c r="M16">
-        <v>0.9836603762137553</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9860497137610396</v>
+      </c>
+      <c r="N16">
+        <v>0.9979680498216708</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9683539777995781</v>
+        <v>0.9716888532011898</v>
       </c>
       <c r="D17">
-        <v>0.9931301044435453</v>
+        <v>0.9958298422648929</v>
       </c>
       <c r="E17">
-        <v>0.9362353274337936</v>
+        <v>0.9373789514423997</v>
       </c>
       <c r="F17">
-        <v>0.9733131483544772</v>
+        <v>0.975729602891419</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032109070102119</v>
+        <v>1.033659162272905</v>
       </c>
       <c r="J17">
-        <v>0.9970850370385375</v>
+        <v>1.000280208645822</v>
       </c>
       <c r="K17">
-        <v>1.007259669654213</v>
+        <v>1.009911386677274</v>
       </c>
       <c r="L17">
-        <v>0.951462064244211</v>
+        <v>0.9525819011168508</v>
       </c>
       <c r="M17">
-        <v>0.9878058540122464</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9901769969236297</v>
+      </c>
+      <c r="N17">
+        <v>1.001700721275843</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9710172957754061</v>
+        <v>0.9743404166113976</v>
       </c>
       <c r="D18">
-        <v>0.995261375161099</v>
+        <v>0.9979527402541711</v>
       </c>
       <c r="E18">
-        <v>0.9387424987143713</v>
+        <v>0.9398762485893496</v>
       </c>
       <c r="F18">
-        <v>0.9759221894684713</v>
+        <v>0.9783274641449885</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033233240510554</v>
+        <v>1.03477893162422</v>
       </c>
       <c r="J18">
-        <v>0.9992217897931486</v>
+        <v>1.002409132143067</v>
       </c>
       <c r="K18">
-        <v>1.009162407843887</v>
+        <v>1.01180690588838</v>
       </c>
       <c r="L18">
-        <v>0.9537095978567569</v>
+        <v>0.9548203020472054</v>
       </c>
       <c r="M18">
-        <v>0.9901698964868357</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.992531082601438</v>
+      </c>
+      <c r="N18">
+        <v>1.003832668088644</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9719164120275869</v>
+        <v>0.9752356386121703</v>
       </c>
       <c r="D19">
-        <v>0.9959809637513115</v>
+        <v>0.9986695579619026</v>
       </c>
       <c r="E19">
-        <v>0.9395875663725741</v>
+        <v>0.9407180548626166</v>
       </c>
       <c r="F19">
-        <v>0.9768024368870809</v>
+        <v>0.9792040121867522</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033612357719091</v>
+        <v>1.035156595537597</v>
       </c>
       <c r="J19">
-        <v>0.9999429259681457</v>
+        <v>1.003127684709453</v>
       </c>
       <c r="K19">
-        <v>1.009804515401628</v>
+        <v>1.012446629178713</v>
       </c>
       <c r="L19">
-        <v>0.9544668061315867</v>
+        <v>0.9555744948961216</v>
       </c>
       <c r="M19">
-        <v>0.9909672084730135</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9933251032891582</v>
+      </c>
+      <c r="N19">
+        <v>1.004552241082094</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9678597158782568</v>
+        <v>0.9711968092585788</v>
       </c>
       <c r="D20">
-        <v>0.992734624135499</v>
+        <v>0.9954359432836009</v>
       </c>
       <c r="E20">
-        <v>0.9357693925572536</v>
+        <v>0.936914884711461</v>
       </c>
       <c r="F20">
-        <v>0.9728286925386238</v>
+        <v>0.9752472588713349</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03190025607743</v>
+        <v>1.033451181030022</v>
       </c>
       <c r="J20">
-        <v>0.9966883922721924</v>
+        <v>0.9998850462248611</v>
       </c>
       <c r="K20">
-        <v>1.006906440893465</v>
+        <v>1.009559523701488</v>
       </c>
       <c r="L20">
-        <v>0.9510442138100026</v>
+        <v>0.952165779063509</v>
       </c>
       <c r="M20">
-        <v>0.9873667568037749</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9897397821425227</v>
+      </c>
+      <c r="N20">
+        <v>1.001304997678918</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9539881260881689</v>
+        <v>0.9573924232311626</v>
       </c>
       <c r="D21">
-        <v>0.9816414250904497</v>
+        <v>0.9843908540633199</v>
       </c>
       <c r="E21">
-        <v>0.9226091812448322</v>
+        <v>0.9238120048202213</v>
       </c>
       <c r="F21">
-        <v>0.95919767465491</v>
+        <v>0.9616805570534052</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.026017239750083</v>
+        <v>1.027593705654271</v>
       </c>
       <c r="J21">
-        <v>0.985544015627711</v>
+        <v>0.9887862551843758</v>
       </c>
       <c r="K21">
-        <v>0.9969791582365147</v>
+        <v>0.9996741061072376</v>
       </c>
       <c r="L21">
-        <v>0.9392217001874862</v>
+        <v>0.9403963710050262</v>
       </c>
       <c r="M21">
-        <v>0.974995607085457</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9774261812300545</v>
+      </c>
+      <c r="N21">
+        <v>0.9901904450821062</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9446621784570068</v>
+        <v>0.9481175310380424</v>
       </c>
       <c r="D22">
-        <v>0.9741906662043663</v>
+        <v>0.9769768623263785</v>
       </c>
       <c r="E22">
-        <v>0.9136694315523208</v>
+        <v>0.9149167157009412</v>
       </c>
       <c r="F22">
-        <v>0.9499947679981808</v>
+        <v>0.9525269224231007</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022039642881049</v>
+        <v>1.023635845699745</v>
       </c>
       <c r="J22">
-        <v>0.9780391320595834</v>
+        <v>0.9813167413949991</v>
       </c>
       <c r="K22">
-        <v>0.990291355760486</v>
+        <v>0.9930186379091616</v>
       </c>
       <c r="L22">
-        <v>0.9311697605957145</v>
+        <v>0.9323856754732385</v>
       </c>
       <c r="M22">
-        <v>0.9666264784331636</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9691013748821969</v>
+      </c>
+      <c r="N22">
+        <v>0.9827103237263837</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9496692684747317</v>
+        <v>0.9530965809135574</v>
       </c>
       <c r="D23">
-        <v>0.9781901944124735</v>
+        <v>0.9809561768220767</v>
       </c>
       <c r="E23">
-        <v>0.91847849999539</v>
+        <v>0.9197012717201433</v>
       </c>
       <c r="F23">
-        <v>0.9549397605239148</v>
+        <v>0.9574448115304803</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024177298331097</v>
+        <v>1.02576263017925</v>
       </c>
       <c r="J23">
-        <v>0.9820696663444393</v>
+        <v>0.9853277802239157</v>
       </c>
       <c r="K23">
-        <v>0.9938832941623874</v>
+        <v>0.9965927678771507</v>
       </c>
       <c r="L23">
-        <v>0.9355032220944878</v>
+        <v>0.9366963928993756</v>
       </c>
       <c r="M23">
-        <v>0.9711250656151709</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9735755596148994</v>
+      </c>
+      <c r="N23">
+        <v>0.9867270586905097</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9680832216567817</v>
+        <v>0.971419310633311</v>
       </c>
       <c r="D24">
-        <v>0.9929134590432646</v>
+        <v>0.9956140620365538</v>
       </c>
       <c r="E24">
-        <v>0.9359801140706844</v>
+        <v>0.9371247600467274</v>
       </c>
       <c r="F24">
-        <v>0.9730477743527162</v>
+        <v>0.9754653842778576</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031994689252296</v>
+        <v>1.033545236992617</v>
       </c>
       <c r="J24">
-        <v>0.9968677594366422</v>
+        <v>1.000063741920526</v>
       </c>
       <c r="K24">
-        <v>1.007066175773029</v>
+        <v>1.00971863995048</v>
       </c>
       <c r="L24">
-        <v>0.9512331952941969</v>
+        <v>0.9523539776565747</v>
       </c>
       <c r="M24">
-        <v>0.9875653315756502</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9899375043213893</v>
+      </c>
+      <c r="N24">
+        <v>1.001483947142968</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.987304465311635</v>
+        <v>0.9905624944067382</v>
       </c>
       <c r="D25">
-        <v>1.008302542008169</v>
+        <v>1.010947816920171</v>
       </c>
       <c r="E25">
-        <v>0.9539462424366892</v>
+        <v>0.9550261513648386</v>
       </c>
       <c r="F25">
-        <v>0.9918254484243</v>
+        <v>0.9941691931050743</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040067473510535</v>
+        <v>1.041589238025865</v>
       </c>
       <c r="J25">
-        <v>1.012266770991795</v>
+        <v>1.015411696631862</v>
       </c>
       <c r="K25">
-        <v>1.020773324548871</v>
+        <v>1.02337852648979</v>
       </c>
       <c r="L25">
-        <v>0.9673041918444818</v>
+        <v>0.9683652018611594</v>
       </c>
       <c r="M25">
-        <v>1.004552003249225</v>
+        <v>1.006858704271832</v>
+      </c>
+      <c r="N25">
+        <v>1.016853697710429</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_29/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004509812368119</v>
+        <v>1.009444555880109</v>
       </c>
       <c r="D2">
-        <v>1.02212826759025</v>
+        <v>1.029093895273358</v>
       </c>
       <c r="E2">
-        <v>0.9678738628659335</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.007719343076815</v>
+        <v>1.033217674307552</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047380967129238</v>
+        <v>1.047495274076611</v>
       </c>
       <c r="J2">
-        <v>1.026556467365159</v>
+        <v>1.031346405320291</v>
       </c>
       <c r="K2">
-        <v>1.033287693649078</v>
+        <v>1.040162256596234</v>
       </c>
       <c r="L2">
-        <v>0.9797996829366106</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.019072172629509</v>
+        <v>1.044232847153642</v>
       </c>
       <c r="N2">
-        <v>1.028014295296491</v>
+        <v>1.032811035512932</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.014011821699698</v>
+        <v>1.016437481631432</v>
       </c>
       <c r="D3">
-        <v>1.029747492346541</v>
+        <v>1.034484097978848</v>
       </c>
       <c r="E3">
-        <v>0.9765301745652604</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.016913708491381</v>
+        <v>1.039150449437659</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051286911480686</v>
+        <v>1.049469953313009</v>
       </c>
       <c r="J3">
-        <v>1.034127664159245</v>
+        <v>1.036489858073026</v>
       </c>
       <c r="K3">
-        <v>1.0400133871227</v>
+        <v>1.044693971097215</v>
       </c>
       <c r="L3">
-        <v>0.987472433090997</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.027334654253624</v>
+        <v>1.049305749362402</v>
       </c>
       <c r="N3">
-        <v>1.035596244058451</v>
+        <v>1.037961792558538</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019907878345604</v>
+        <v>1.020833718622383</v>
       </c>
       <c r="D4">
-        <v>1.034475533739412</v>
+        <v>1.03787522097791</v>
       </c>
       <c r="E4">
-        <v>0.9818608256746267</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.022603591489225</v>
+        <v>1.042885763645753</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053692100625873</v>
+        <v>1.050699392598461</v>
       </c>
       <c r="J4">
-        <v>1.038815692748268</v>
+        <v>1.039719103320672</v>
       </c>
       <c r="K4">
-        <v>1.044174940168473</v>
+        <v>1.047537044993736</v>
       </c>
       <c r="L4">
-        <v>0.99218321946229</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.032436655517007</v>
+        <v>1.05249274602647</v>
       </c>
       <c r="N4">
-        <v>1.040290930185796</v>
+        <v>1.041195623704835</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022330859497061</v>
+        <v>1.022652714107269</v>
       </c>
       <c r="D5">
-        <v>1.036418480991617</v>
+        <v>1.03927882676328</v>
       </c>
       <c r="E5">
-        <v>0.9840421921906894</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.024938408165501</v>
+        <v>1.044432523509504</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.054676062930715</v>
+        <v>1.051205151604202</v>
       </c>
       <c r="J5">
-        <v>1.040739842207498</v>
+        <v>1.041054153241788</v>
       </c>
       <c r="K5">
-        <v>1.045882277759468</v>
+        <v>1.048711911252523</v>
       </c>
       <c r="L5">
-        <v>0.9941075633549202</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>1.034527589155273</v>
+        <v>1.053810790896859</v>
       </c>
       <c r="N5">
-        <v>1.042217812157961</v>
+        <v>1.042532569549972</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022734546864819</v>
+        <v>1.022956464852933</v>
       </c>
       <c r="D6">
-        <v>1.036742185914205</v>
+        <v>1.039513238141189</v>
       </c>
       <c r="E6">
-        <v>0.9844050927042866</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>1.025327210420119</v>
+        <v>1.044690883471823</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054839736345099</v>
+        <v>1.051289432963388</v>
       </c>
       <c r="J6">
-        <v>1.041060279301774</v>
+        <v>1.041277025063371</v>
       </c>
       <c r="K6">
-        <v>1.046166564963895</v>
+        <v>1.048908010195935</v>
       </c>
       <c r="L6">
-        <v>0.9944275073083411</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>1.034875624199426</v>
+        <v>1.054030850247218</v>
       </c>
       <c r="N6">
-        <v>1.042538704309665</v>
+        <v>1.042755757875105</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019940467513064</v>
+        <v>1.020858136751396</v>
       </c>
       <c r="D7">
-        <v>1.034501666719447</v>
+        <v>1.037894061131835</v>
       </c>
       <c r="E7">
-        <v>0.9818902012599836</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
-        <v>1.022635008199899</v>
+        <v>1.042906522564398</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053705352619813</v>
+        <v>1.050706193586696</v>
       </c>
       <c r="J7">
-        <v>1.038841582119479</v>
+        <v>1.039737029368243</v>
       </c>
       <c r="K7">
-        <v>1.044197915248098</v>
+        <v>1.047552822351592</v>
       </c>
       <c r="L7">
-        <v>0.992209147163311</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>1.032464801066926</v>
+        <v>1.052510441953162</v>
       </c>
       <c r="N7">
-        <v>1.040316856322883</v>
+        <v>1.04121357520945</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007776344994139</v>
+        <v>1.011835501646798</v>
       </c>
       <c r="D8">
-        <v>1.024747427430455</v>
+        <v>1.030936268520127</v>
       </c>
       <c r="E8">
-        <v>0.9708586436991596</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>1.010883519753834</v>
+        <v>1.035244904995829</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048727645791588</v>
+        <v>1.048172922872119</v>
       </c>
       <c r="J8">
-        <v>1.029161351920958</v>
+        <v>1.033105864415739</v>
       </c>
       <c r="K8">
-        <v>1.035602296902513</v>
+        <v>1.041712880071852</v>
       </c>
       <c r="L8">
-        <v>0.9824483779243031</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.021918057673674</v>
+        <v>1.045967722054261</v>
       </c>
       <c r="N8">
-        <v>1.030622879087142</v>
+        <v>1.034572993242108</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9841589761635193</v>
+        <v>0.9948710733653663</v>
       </c>
       <c r="D9">
-        <v>1.005816752004553</v>
+        <v>1.01787950414066</v>
       </c>
       <c r="E9">
-        <v>0.9490722416081581</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.9879263690990775</v>
+        <v>1.020889953220473</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038909644875919</v>
+        <v>1.043315839595867</v>
       </c>
       <c r="J9">
-        <v>1.010283796152734</v>
+        <v>1.020606256413941</v>
       </c>
       <c r="K9">
-        <v>1.018816156179525</v>
+        <v>1.030689009481998</v>
       </c>
       <c r="L9">
-        <v>0.9630494147419449</v>
+        <v>0.9576541208834082</v>
       </c>
       <c r="M9">
-        <v>1.001218417728533</v>
+        <v>1.033652959566534</v>
       </c>
       <c r="N9">
-        <v>1.011718515024442</v>
+        <v>1.022055634363223</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9665171715335465</v>
+        <v>0.9827199383883294</v>
       </c>
       <c r="D10">
-        <v>0.9916904067912484</v>
+        <v>1.008552924598182</v>
       </c>
       <c r="E10">
-        <v>0.9324911405298987</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>0.9706556896826948</v>
+        <v>1.010650871827507</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031470293040192</v>
+        <v>1.039777370998293</v>
       </c>
       <c r="J10">
-        <v>0.9961252371644435</v>
+        <v>1.011636332097748</v>
       </c>
       <c r="K10">
-        <v>1.006211332011813</v>
+        <v>1.022769451600624</v>
       </c>
       <c r="L10">
-        <v>0.9481965349526481</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>0.9855757780018451</v>
+        <v>1.024830447967351</v>
       </c>
       <c r="N10">
-        <v>0.9975398492583786</v>
+        <v>1.013072971725636</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9582998770376117</v>
+        <v>0.9772262272115309</v>
       </c>
       <c r="D11">
-        <v>0.9851165543219781</v>
+        <v>1.004344440138833</v>
       </c>
       <c r="E11">
-        <v>0.9246783232102511</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.962574460088599</v>
+        <v>1.006034022236177</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027980024649275</v>
+        <v>1.038164580155631</v>
       </c>
       <c r="J11">
-        <v>0.9895165562629247</v>
+        <v>1.007578100581288</v>
       </c>
       <c r="K11">
-        <v>1.000324716813828</v>
+        <v>1.019184889123573</v>
       </c>
       <c r="L11">
-        <v>0.9411756807232821</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9782384489861684</v>
+        <v>1.020843035862915</v>
       </c>
       <c r="N11">
-        <v>0.9909217832719536</v>
+        <v>1.009008977054937</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.955146409919622</v>
+        <v>0.9751475474057859</v>
       </c>
       <c r="D12">
-        <v>0.9825949305189494</v>
+        <v>1.002753491654042</v>
       </c>
       <c r="E12">
-        <v>0.9216647600976272</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9594668025942881</v>
+        <v>1.004289195855748</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026636816783263</v>
+        <v>1.037552495464336</v>
       </c>
       <c r="J12">
-        <v>0.9869783040880279</v>
+        <v>1.006042264262741</v>
       </c>
       <c r="K12">
-        <v>0.9980633575359178</v>
+        <v>1.017828128556548</v>
       </c>
       <c r="L12">
-        <v>0.9384641143134868</v>
+        <v>0.9481721277252508</v>
       </c>
       <c r="M12">
-        <v>0.975414054697318</v>
+        <v>1.019334680422455</v>
       </c>
       <c r="N12">
-        <v>0.9883799264878267</v>
+        <v>1.007470959672655</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9558276885669803</v>
+        <v>0.9755952096296319</v>
       </c>
       <c r="D13">
-        <v>0.9831396484027584</v>
+        <v>1.003096048388701</v>
       </c>
       <c r="E13">
-        <v>0.9223165385708162</v>
+        <v>0.9318723593368231</v>
       </c>
       <c r="F13">
-        <v>0.9601384895714112</v>
+        <v>1.004664862680944</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02692717554358</v>
+        <v>1.037684394853229</v>
       </c>
       <c r="J13">
-        <v>0.9875267664595436</v>
+        <v>1.006373032120899</v>
       </c>
       <c r="K13">
-        <v>0.9985520082577539</v>
+        <v>1.018120336971334</v>
       </c>
       <c r="L13">
-        <v>0.9390507351538473</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.9760246457971442</v>
+        <v>1.019659498137081</v>
       </c>
       <c r="N13">
-        <v>0.9889291677388197</v>
+        <v>1.00780219725911</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9580413706694582</v>
+        <v>0.9770551993798222</v>
       </c>
       <c r="D14">
-        <v>0.9849098185419315</v>
+        <v>1.004213511121459</v>
       </c>
       <c r="E14">
-        <v>0.9244316070420467</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.9623198441347922</v>
+        <v>1.005890419618862</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027869991235004</v>
+        <v>1.038114256363304</v>
       </c>
       <c r="J14">
-        <v>0.9893085250405206</v>
+        <v>1.00745174185166</v>
       </c>
       <c r="K14">
-        <v>1.000139387890341</v>
+        <v>1.019073267037113</v>
       </c>
       <c r="L14">
-        <v>0.9409537594712033</v>
+        <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9780070986380833</v>
+        <v>1.020718923943497</v>
       </c>
       <c r="N14">
-        <v>0.9907134566213521</v>
+        <v>1.008882438881419</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9593913939186118</v>
+        <v>0.9779496003739127</v>
       </c>
       <c r="D15">
-        <v>0.9859895234931197</v>
+        <v>1.004898272355539</v>
       </c>
       <c r="E15">
-        <v>0.9257194260296299</v>
+        <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9636492854528725</v>
+        <v>1.006641484195794</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028444476636161</v>
+        <v>1.038377353486804</v>
       </c>
       <c r="J15">
-        <v>0.9903948616624959</v>
+        <v>1.008112531217383</v>
       </c>
       <c r="K15">
-        <v>1.001107155955362</v>
+        <v>1.019656984360728</v>
       </c>
       <c r="L15">
-        <v>0.9421120118984524</v>
+        <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9792149478563149</v>
+        <v>1.021367991657852</v>
       </c>
       <c r="N15">
-        <v>0.9918013359659352</v>
+        <v>1.009544166643835</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9670491989438993</v>
+        <v>0.9830793828031682</v>
       </c>
       <c r="D16">
-        <v>0.9921161726107783</v>
+        <v>1.008828465080026</v>
       </c>
       <c r="E16">
-        <v>0.9329950057647083</v>
+        <v>0.9363637346017257</v>
       </c>
       <c r="F16">
-        <v>0.9711780877945206</v>
+        <v>1.010953218312723</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031695755983386</v>
+        <v>1.039882632909637</v>
       </c>
       <c r="J16">
-        <v>0.9965528304961587</v>
+        <v>1.011901806966231</v>
       </c>
       <c r="K16">
-        <v>1.006592144928776</v>
+        <v>1.023003912701956</v>
       </c>
       <c r="L16">
-        <v>0.9486488606389175</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9860497137610396</v>
+        <v>1.025091380331686</v>
       </c>
       <c r="N16">
-        <v>0.9979680498216708</v>
+        <v>1.013338823598883</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9716888532011898</v>
+        <v>0.9862328667979688</v>
       </c>
       <c r="D17">
-        <v>0.9958298422648929</v>
+        <v>1.011246789844151</v>
       </c>
       <c r="E17">
-        <v>0.9373789514423997</v>
+        <v>0.938276015685567</v>
       </c>
       <c r="F17">
-        <v>0.975729602891419</v>
+        <v>1.013607191805076</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033659162272905</v>
+        <v>1.040804663217851</v>
       </c>
       <c r="J17">
-        <v>1.000280208645822</v>
+        <v>1.014230572873081</v>
       </c>
       <c r="K17">
-        <v>1.009911386677274</v>
+        <v>1.025060454460723</v>
       </c>
       <c r="L17">
-        <v>0.9525819011168508</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9901769969236297</v>
+        <v>1.027380771185625</v>
       </c>
       <c r="N17">
-        <v>1.001700721275843</v>
+        <v>1.015670896620433</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9743404166113976</v>
+        <v>0.9880500728002934</v>
       </c>
       <c r="D18">
-        <v>0.9979527402541711</v>
+        <v>1.012641114830113</v>
       </c>
       <c r="E18">
-        <v>0.9398762485893496</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9783274641449885</v>
+        <v>1.015137703594945</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03477893162422</v>
+        <v>1.041334757227412</v>
       </c>
       <c r="J18">
-        <v>1.002409132143067</v>
+        <v>1.015572261623732</v>
       </c>
       <c r="K18">
-        <v>1.01180690588838</v>
+        <v>1.026245156270062</v>
       </c>
       <c r="L18">
-        <v>0.9548203020472054</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>0.992531082601438</v>
+        <v>1.028700158081921</v>
       </c>
       <c r="N18">
-        <v>1.003832668088644</v>
+        <v>1.017014490723004</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9752356386121703</v>
+        <v>0.988666023507334</v>
       </c>
       <c r="D19">
-        <v>0.9986695579619026</v>
+        <v>1.013113850752487</v>
       </c>
       <c r="E19">
-        <v>0.9407180548626166</v>
+        <v>0.9397594814684966</v>
       </c>
       <c r="F19">
-        <v>0.9792040121867522</v>
+        <v>1.015656667226594</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035156595537597</v>
+        <v>1.041514223649327</v>
       </c>
       <c r="J19">
-        <v>1.003127684709453</v>
+        <v>1.016026984373725</v>
       </c>
       <c r="K19">
-        <v>1.012446629178713</v>
+        <v>1.026646646756545</v>
       </c>
       <c r="L19">
-        <v>0.9555744948961216</v>
+        <v>0.9546352493816591</v>
       </c>
       <c r="M19">
-        <v>0.9933251032891582</v>
+        <v>1.029147385738914</v>
       </c>
       <c r="N19">
-        <v>1.004552241082094</v>
+        <v>1.01746985923146</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9711968092585788</v>
+        <v>0.9858968425127428</v>
       </c>
       <c r="D20">
-        <v>0.9954359432836009</v>
+        <v>1.010989021538215</v>
       </c>
       <c r="E20">
-        <v>0.936914884711461</v>
+        <v>0.9380716924660141</v>
       </c>
       <c r="F20">
-        <v>0.9752472588713349</v>
+        <v>1.013324272659669</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033451181030022</v>
+        <v>1.040706541881598</v>
       </c>
       <c r="J20">
-        <v>0.9998850462248611</v>
+        <v>1.013982455028779</v>
       </c>
       <c r="K20">
-        <v>1.009559523701488</v>
+        <v>1.024841355783343</v>
       </c>
       <c r="L20">
-        <v>0.952165779063509</v>
+        <v>0.9532985019057445</v>
       </c>
       <c r="M20">
-        <v>0.9897397821425227</v>
+        <v>1.027136808283668</v>
       </c>
       <c r="N20">
-        <v>1.001304997678918</v>
+        <v>1.015422426420333</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9573924232311626</v>
+        <v>0.976626347335411</v>
       </c>
       <c r="D21">
-        <v>0.9843908540633199</v>
+        <v>1.003885230586881</v>
       </c>
       <c r="E21">
-        <v>0.9238120048202213</v>
+        <v>0.9324872132148893</v>
       </c>
       <c r="F21">
-        <v>0.9616805570534052</v>
+        <v>1.005530370322199</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027593705654271</v>
+        <v>1.037988040222518</v>
       </c>
       <c r="J21">
-        <v>0.9887862551843758</v>
+        <v>1.007134893017559</v>
       </c>
       <c r="K21">
-        <v>0.9996741061072376</v>
+        <v>1.018793368049494</v>
       </c>
       <c r="L21">
-        <v>0.9403963710050262</v>
+        <v>0.9488714019981063</v>
       </c>
       <c r="M21">
-        <v>0.9774261812300545</v>
+        <v>1.020407720199403</v>
       </c>
       <c r="N21">
-        <v>0.9901904450821062</v>
+        <v>1.008565140085631</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9481175310380424</v>
+        <v>0.9705754678906943</v>
       </c>
       <c r="D22">
-        <v>0.9769768623263785</v>
+        <v>0.9992570710612376</v>
       </c>
       <c r="E22">
-        <v>0.9149167157009412</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>0.9525269224231007</v>
+        <v>1.000455503713556</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.023635845699745</v>
+        <v>1.03620293051917</v>
       </c>
       <c r="J22">
-        <v>0.9813167413949991</v>
+        <v>1.002663749378349</v>
       </c>
       <c r="K22">
-        <v>0.9930186379091616</v>
+        <v>1.014843259899684</v>
       </c>
       <c r="L22">
-        <v>0.9323856754732385</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9691013748821969</v>
+        <v>1.01601794238396</v>
       </c>
       <c r="N22">
-        <v>0.9827103237263837</v>
+        <v>1.004087646909606</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9530965809135574</v>
+        <v>0.9738053837836778</v>
       </c>
       <c r="D23">
-        <v>0.9809561768220767</v>
+        <v>1.001726678246179</v>
       </c>
       <c r="E23">
-        <v>0.9197012717201433</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9574448115304803</v>
+        <v>1.003163207083078</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.02576263017925</v>
+        <v>1.037156777997554</v>
       </c>
       <c r="J23">
-        <v>0.9853277802239157</v>
+        <v>1.005050533550041</v>
       </c>
       <c r="K23">
-        <v>0.9965927678771507</v>
+        <v>1.016951986344647</v>
       </c>
       <c r="L23">
-        <v>0.9366963928993756</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9735755596148994</v>
+        <v>1.018360894348258</v>
       </c>
       <c r="N23">
-        <v>0.9867270586905097</v>
+        <v>1.00647782058859</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.971419310633311</v>
+        <v>0.9860487456924225</v>
       </c>
       <c r="D24">
-        <v>0.9956140620365538</v>
+        <v>1.011105545973811</v>
       </c>
       <c r="E24">
-        <v>0.9371247600467274</v>
+        <v>0.9381640424011822</v>
       </c>
       <c r="F24">
-        <v>0.9754653842778576</v>
+        <v>1.013452165565416</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033545236992617</v>
+        <v>1.040750902450538</v>
       </c>
       <c r="J24">
-        <v>1.000063741920526</v>
+        <v>1.014094620060946</v>
       </c>
       <c r="K24">
-        <v>1.00971863995048</v>
+        <v>1.024940402772793</v>
       </c>
       <c r="L24">
-        <v>0.9523539776565747</v>
+        <v>0.9533716596442542</v>
       </c>
       <c r="M24">
-        <v>0.9899375043213893</v>
+        <v>1.027247093830712</v>
       </c>
       <c r="N24">
-        <v>1.001483947142968</v>
+        <v>1.015534750739711</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9905624944067382</v>
+        <v>0.9993951019061382</v>
       </c>
       <c r="D25">
-        <v>1.010947816920171</v>
+        <v>1.021357721035447</v>
       </c>
       <c r="E25">
-        <v>0.9550261513648386</v>
+        <v>0.9463835801718017</v>
       </c>
       <c r="F25">
-        <v>0.9941691931050743</v>
+        <v>1.024711431313327</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041589238025865</v>
+        <v>1.044621583280201</v>
       </c>
       <c r="J25">
-        <v>1.015411696631862</v>
+        <v>1.023942840447219</v>
       </c>
       <c r="K25">
-        <v>1.02337852648979</v>
+        <v>1.03363329218838</v>
       </c>
       <c r="L25">
-        <v>0.9683652018611594</v>
+        <v>0.9598754494005832</v>
       </c>
       <c r="M25">
-        <v>1.006858704271832</v>
+        <v>1.036937873999333</v>
       </c>
       <c r="N25">
-        <v>1.016853697710429</v>
+        <v>1.025396956728539</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_29/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.009444555880109</v>
+        <v>1.053185999211039</v>
       </c>
       <c r="D2">
-        <v>1.029093895273358</v>
+        <v>1.065045067577553</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.033217674307552</v>
+        <v>1.070851901955146</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047495274076611</v>
+        <v>1.075982104682469</v>
       </c>
       <c r="J2">
-        <v>1.031346405320291</v>
+        <v>1.073884495707605</v>
       </c>
       <c r="K2">
-        <v>1.040162256596234</v>
+        <v>1.075666920875223</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.044232847153642</v>
+        <v>1.081405117984608</v>
       </c>
       <c r="N2">
-        <v>1.032811035512932</v>
+        <v>1.075409534867783</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016437481631432</v>
+        <v>1.059410003646061</v>
       </c>
       <c r="D3">
-        <v>1.034484097978848</v>
+        <v>1.070001031555437</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.039150449437659</v>
+        <v>1.076359501427747</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049469953313009</v>
+        <v>1.078712482029982</v>
       </c>
       <c r="J3">
-        <v>1.036489858073026</v>
+        <v>1.078402434590992</v>
       </c>
       <c r="K3">
-        <v>1.044693971097215</v>
+        <v>1.079810233640361</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.049305749362402</v>
+        <v>1.08610039210548</v>
       </c>
       <c r="N3">
-        <v>1.037961792558538</v>
+        <v>1.0799338897426</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.020833718622383</v>
+        <v>1.063331638108286</v>
       </c>
       <c r="D4">
-        <v>1.03787522097791</v>
+        <v>1.073125113414827</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.042885763645753</v>
+        <v>1.079834398879717</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050699392598461</v>
+        <v>1.080421281728369</v>
       </c>
       <c r="J4">
-        <v>1.039719103320672</v>
+        <v>1.081243222442507</v>
       </c>
       <c r="K4">
-        <v>1.047537044993736</v>
+        <v>1.082414370184348</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.05249274602647</v>
+        <v>1.089056095263482</v>
       </c>
       <c r="N4">
-        <v>1.041195623704835</v>
+        <v>1.082778711838707</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.022652714107269</v>
+        <v>1.064956158296139</v>
       </c>
       <c r="D5">
-        <v>1.03927882676328</v>
+        <v>1.074419530124546</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.044432523509504</v>
+        <v>1.081274919298576</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051205151604202</v>
+        <v>1.08112633013915</v>
       </c>
       <c r="J5">
-        <v>1.041054153241788</v>
+        <v>1.082418555899197</v>
       </c>
       <c r="K5">
-        <v>1.048711911252523</v>
+        <v>1.083491518656725</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.053810790896859</v>
+        <v>1.090279782134081</v>
       </c>
       <c r="N5">
-        <v>1.042532569549972</v>
+        <v>1.083955714403717</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.022956464852933</v>
+        <v>1.065227539710119</v>
       </c>
       <c r="D6">
-        <v>1.039513238141189</v>
+        <v>1.074635781385975</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.044690883471823</v>
+        <v>1.081515623597747</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051289432963388</v>
+        <v>1.081243944132321</v>
       </c>
       <c r="J6">
-        <v>1.041277025063371</v>
+        <v>1.082614812799969</v>
       </c>
       <c r="K6">
-        <v>1.048908010195935</v>
+        <v>1.083671364206779</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.054030850247218</v>
+        <v>1.090484160397517</v>
       </c>
       <c r="N6">
-        <v>1.042755757875105</v>
+        <v>1.0841522500118</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.020858136751396</v>
+        <v>1.063353438368052</v>
       </c>
       <c r="D7">
-        <v>1.037894061131835</v>
+        <v>1.073142482822103</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.042906522564398</v>
+        <v>1.079853725838727</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050706193586696</v>
+        <v>1.080430754314703</v>
       </c>
       <c r="J7">
-        <v>1.039737029368243</v>
+        <v>1.081259000625554</v>
       </c>
       <c r="K7">
-        <v>1.047552822351592</v>
+        <v>1.082428831389264</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.052510441953162</v>
+        <v>1.089072519374116</v>
       </c>
       <c r="N7">
-        <v>1.04121357520945</v>
+        <v>1.082794512428583</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011835501646798</v>
+        <v>1.055312051478646</v>
       </c>
       <c r="D8">
-        <v>1.030936268520127</v>
+        <v>1.066737634246183</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.035244904995829</v>
+        <v>1.072732220600881</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048172922872119</v>
+        <v>1.076917181360533</v>
       </c>
       <c r="J8">
-        <v>1.033105864415739</v>
+        <v>1.075428989422584</v>
       </c>
       <c r="K8">
-        <v>1.041712880071852</v>
+        <v>1.077083569079947</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.045967722054261</v>
+        <v>1.083009509952187</v>
       </c>
       <c r="N8">
-        <v>1.034572993242108</v>
+        <v>1.076956221940994</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9948710733653663</v>
+        <v>1.040275203522981</v>
       </c>
       <c r="D9">
-        <v>1.01787950414066</v>
+        <v>1.054775485842393</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.020889953220473</v>
+        <v>1.059455990688277</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.043315839595867</v>
+        <v>1.070255779638865</v>
       </c>
       <c r="J9">
-        <v>1.020606256413941</v>
+        <v>1.064481728740393</v>
       </c>
       <c r="K9">
-        <v>1.030689009481998</v>
+        <v>1.067038259823266</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834082</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.033652959566534</v>
+        <v>1.071652846120692</v>
       </c>
       <c r="N9">
-        <v>1.022055634363223</v>
+        <v>1.065993414892965</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9827199383883294</v>
+        <v>1.029579765204532</v>
       </c>
       <c r="D10">
-        <v>1.008552924598182</v>
+        <v>1.046281582108154</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547281</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.010650871827507</v>
+        <v>1.050044995318991</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039777370998293</v>
+        <v>1.06545842827803</v>
       </c>
       <c r="J10">
-        <v>1.011636332097748</v>
+        <v>1.056667025006256</v>
       </c>
       <c r="K10">
-        <v>1.022769451600624</v>
+        <v>1.059862632911049</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.024830447967351</v>
+        <v>1.063565867766325</v>
       </c>
       <c r="N10">
-        <v>1.013072971725636</v>
+        <v>1.058167613383167</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9772262272115309</v>
+        <v>1.024767084075807</v>
       </c>
       <c r="D11">
-        <v>1.004344440138833</v>
+        <v>1.042464161558867</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.006034022236177</v>
+        <v>1.045819066263425</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038164580155631</v>
+        <v>1.06328636488288</v>
       </c>
       <c r="J11">
-        <v>1.007578100581288</v>
+        <v>1.053144625641009</v>
       </c>
       <c r="K11">
-        <v>1.019184889123573</v>
+        <v>1.056627363760879</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.020843035862915</v>
+        <v>1.059925711859266</v>
       </c>
       <c r="N11">
-        <v>1.009008977054937</v>
+        <v>1.054640211806796</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9751475474057859</v>
+        <v>1.022950035798143</v>
       </c>
       <c r="D12">
-        <v>1.002753491654042</v>
+        <v>1.0410236822161</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.004289195855748</v>
+        <v>1.044224976650739</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037552495464336</v>
+        <v>1.06246434704494</v>
       </c>
       <c r="J12">
-        <v>1.006042264262741</v>
+        <v>1.051813895773755</v>
       </c>
       <c r="K12">
-        <v>1.017828128556548</v>
+        <v>1.055404988993818</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252508</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.019334680422455</v>
+        <v>1.058551262836343</v>
       </c>
       <c r="N12">
-        <v>1.007470959672655</v>
+        <v>1.053307592150494</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9755952096296319</v>
+        <v>1.023341166234306</v>
       </c>
       <c r="D13">
-        <v>1.003096048388701</v>
+        <v>1.041333715796963</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368231</v>
+        <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>1.004664862680944</v>
+        <v>1.044568047603819</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037684394853229</v>
+        <v>1.062641378059716</v>
       </c>
       <c r="J13">
-        <v>1.006373032120899</v>
+        <v>1.05210037978904</v>
       </c>
       <c r="K13">
-        <v>1.018120336971334</v>
+        <v>1.055668151050897</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>1.019659498137081</v>
+        <v>1.058847123806339</v>
       </c>
       <c r="N13">
-        <v>1.00780219725911</v>
+        <v>1.053594483005942</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9770551993798222</v>
+        <v>1.02461749930242</v>
       </c>
       <c r="D14">
-        <v>1.004213511121459</v>
+        <v>1.042345560071213</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.005890419618862</v>
+        <v>1.045687806470005</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038114256363304</v>
+        <v>1.063218733062017</v>
       </c>
       <c r="J14">
-        <v>1.00745174185166</v>
+        <v>1.053035092544859</v>
       </c>
       <c r="K14">
-        <v>1.019073267037113</v>
+        <v>1.05652675175101</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>1.020718923943497</v>
+        <v>1.059812564495724</v>
       </c>
       <c r="N14">
-        <v>1.008882438881419</v>
+        <v>1.054530523161086</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9779496003739127</v>
+        <v>1.025399926102151</v>
       </c>
       <c r="D15">
-        <v>1.004898272355539</v>
+        <v>1.042965957282838</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>1.006641484195794</v>
+        <v>1.046374440325162</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038377353486804</v>
+        <v>1.063572413208465</v>
       </c>
       <c r="J15">
-        <v>1.008112531217383</v>
+        <v>1.053607989228984</v>
       </c>
       <c r="K15">
-        <v>1.019656984360728</v>
+        <v>1.057052983246928</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>1.021367991657852</v>
+        <v>1.060404396451097</v>
       </c>
       <c r="N15">
-        <v>1.009544166643835</v>
+        <v>1.055104233424215</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9830793828031682</v>
+        <v>1.02989516585246</v>
       </c>
       <c r="D16">
-        <v>1.008828465080026</v>
+        <v>1.046531862944242</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017257</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.010953218312723</v>
+        <v>1.050322134091248</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039882632909637</v>
+        <v>1.065600502936255</v>
       </c>
       <c r="J16">
-        <v>1.011901806966231</v>
+        <v>1.056897747967685</v>
       </c>
       <c r="K16">
-        <v>1.023003912701956</v>
+        <v>1.060074530732315</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.025091380331686</v>
+        <v>1.063804408755332</v>
       </c>
       <c r="N16">
-        <v>1.013338823598883</v>
+        <v>1.058398663997665</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9862328667979688</v>
+        <v>1.032664881317249</v>
       </c>
       <c r="D17">
-        <v>1.011246789844151</v>
+        <v>1.048730259403741</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.013607191805076</v>
+        <v>1.052756856308665</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040804663217851</v>
+        <v>1.066846635951717</v>
       </c>
       <c r="J17">
-        <v>1.014230572873081</v>
+        <v>1.058923190459787</v>
       </c>
       <c r="K17">
-        <v>1.025060454460723</v>
+        <v>1.061934610692346</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.027380771185625</v>
+        <v>1.065899047476388</v>
       </c>
       <c r="N17">
-        <v>1.015670896620433</v>
+        <v>1.060426982850427</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9880500728002934</v>
+        <v>1.034263054496936</v>
       </c>
       <c r="D18">
-        <v>1.012641114830113</v>
+        <v>1.049999200221302</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.015137703594945</v>
+        <v>1.054162553407067</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041334757227412</v>
+        <v>1.067564410612015</v>
       </c>
       <c r="J18">
-        <v>1.015572261623732</v>
+        <v>1.060091337353978</v>
       </c>
       <c r="K18">
-        <v>1.026245156270062</v>
+        <v>1.063007298285184</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.028700158081921</v>
+        <v>1.067107568845556</v>
       </c>
       <c r="N18">
-        <v>1.017014490723004</v>
+        <v>1.061596788647196</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.988666023507334</v>
+        <v>1.034805107883215</v>
       </c>
       <c r="D19">
-        <v>1.013113850752487</v>
+        <v>1.050429657255177</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684966</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.015656667226594</v>
+        <v>1.054639460731228</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041514223649327</v>
+        <v>1.067807642243142</v>
       </c>
       <c r="J19">
-        <v>1.016026984373725</v>
+        <v>1.060487440260297</v>
       </c>
       <c r="K19">
-        <v>1.026646646756545</v>
+        <v>1.063371016638877</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816591</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.029147385738914</v>
+        <v>1.067517440713797</v>
       </c>
       <c r="N19">
-        <v>1.01746985923146</v>
+        <v>1.061993454065077</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9858968425127428</v>
+        <v>1.032369526908659</v>
       </c>
       <c r="D20">
-        <v>1.010989021538215</v>
+        <v>1.048495783545659</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660141</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.013324272659669</v>
+        <v>1.052497138622935</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040706541881598</v>
+        <v>1.066713882946252</v>
       </c>
       <c r="J20">
-        <v>1.013982455028779</v>
+        <v>1.05870726171608</v>
       </c>
       <c r="K20">
-        <v>1.024841355783343</v>
+        <v>1.061736320027747</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057445</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.027136808283668</v>
+        <v>1.065675693241989</v>
       </c>
       <c r="N20">
-        <v>1.015422426420333</v>
+        <v>1.060210747463137</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.976626347335411</v>
+        <v>1.024242481032179</v>
       </c>
       <c r="D21">
-        <v>1.003885230586881</v>
+        <v>1.042048232138134</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148893</v>
+        <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>1.005530370322199</v>
+        <v>1.045358753416524</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037988040222518</v>
+        <v>1.063049144820753</v>
       </c>
       <c r="J21">
-        <v>1.007134893017559</v>
+        <v>1.052760473132887</v>
       </c>
       <c r="K21">
-        <v>1.018793368049494</v>
+        <v>1.056274497263572</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981063</v>
+        <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>1.020407720199403</v>
+        <v>1.059528895893451</v>
       </c>
       <c r="N21">
-        <v>1.008565140085631</v>
+        <v>1.05425551375805</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9705754678906943</v>
+        <v>1.018961330642183</v>
       </c>
       <c r="D22">
-        <v>0.9992570710612376</v>
+        <v>1.037863215625342</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>1.000455503713556</v>
+        <v>1.040728460034629</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03620293051917</v>
+        <v>1.060656377958836</v>
       </c>
       <c r="J22">
-        <v>1.002663749378349</v>
+        <v>1.048891277533798</v>
       </c>
       <c r="K22">
-        <v>1.014843259899684</v>
+        <v>1.052720147338141</v>
       </c>
       <c r="L22">
         <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>1.01601794238396</v>
+        <v>1.055534068299743</v>
       </c>
       <c r="N22">
-        <v>1.004087646909606</v>
+        <v>1.050380823457407</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9738053837836778</v>
+        <v>1.021777985647479</v>
       </c>
       <c r="D23">
-        <v>1.001726678246179</v>
+        <v>1.040094771339148</v>
       </c>
       <c r="E23">
         <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>1.003163207083078</v>
+        <v>1.04319715830487</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037156777997554</v>
+        <v>1.061933580955201</v>
       </c>
       <c r="J23">
-        <v>1.005050533550041</v>
+        <v>1.050955309285812</v>
       </c>
       <c r="K23">
-        <v>1.016951986344647</v>
+        <v>1.054616281893787</v>
       </c>
       <c r="L23">
         <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>1.018360894348258</v>
+        <v>1.057664688211922</v>
       </c>
       <c r="N23">
-        <v>1.00647782058859</v>
+        <v>1.052447786371257</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9860487456924225</v>
+        <v>1.032503038326307</v>
       </c>
       <c r="D24">
-        <v>1.011105545973811</v>
+        <v>1.048601774222771</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011822</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>1.013452165565416</v>
+        <v>1.052614538347607</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040750902450538</v>
+        <v>1.066773896282948</v>
       </c>
       <c r="J24">
-        <v>1.014094620060946</v>
+        <v>1.058804871482893</v>
       </c>
       <c r="K24">
-        <v>1.024940402772793</v>
+        <v>1.061825956844778</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442542</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>1.027247093830712</v>
+        <v>1.065776658226814</v>
       </c>
       <c r="N24">
-        <v>1.015534750739711</v>
+        <v>1.060308495847015</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9993951019061382</v>
+        <v>1.044273881796837</v>
       </c>
       <c r="D25">
-        <v>1.021357721035447</v>
+        <v>1.057954391413232</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718017</v>
+        <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>1.024711431313327</v>
+        <v>1.062981331541996</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044621583280201</v>
+        <v>1.07203754482521</v>
       </c>
       <c r="J25">
-        <v>1.023942840447219</v>
+        <v>1.067397899996315</v>
       </c>
       <c r="K25">
-        <v>1.03363329218838</v>
+        <v>1.069715045232511</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005832</v>
+        <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.036937873999333</v>
+        <v>1.074674734051213</v>
       </c>
       <c r="N25">
-        <v>1.025396956728539</v>
+        <v>1.06891372744656</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_29/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.053185999211039</v>
+        <v>1.071684527833219</v>
       </c>
       <c r="D2">
-        <v>1.065045067577553</v>
+        <v>1.073303175105101</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.070851901955146</v>
+        <v>1.083105220937883</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.075982104682469</v>
+        <v>1.061812187877856</v>
       </c>
       <c r="J2">
-        <v>1.073884495707605</v>
+        <v>1.076607878401696</v>
       </c>
       <c r="K2">
-        <v>1.075666920875223</v>
+        <v>1.075995393738399</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.081405117984608</v>
+        <v>1.085771702332616</v>
       </c>
       <c r="N2">
-        <v>1.075409534867783</v>
+        <v>1.078136785077677</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.059410003646061</v>
+        <v>1.072914509975875</v>
       </c>
       <c r="D3">
-        <v>1.070001031555437</v>
+        <v>1.074287236733825</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.076359501427747</v>
+        <v>1.084229850560326</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.078712482029982</v>
+        <v>1.062262765656662</v>
       </c>
       <c r="J3">
-        <v>1.078402434590992</v>
+        <v>1.077494556110752</v>
       </c>
       <c r="K3">
-        <v>1.079810233640361</v>
+        <v>1.076795953142709</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.08610039210548</v>
+        <v>1.086714349908488</v>
       </c>
       <c r="N3">
-        <v>1.0799338897426</v>
+        <v>1.079024721970782</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.063331638108286</v>
+        <v>1.073709616925371</v>
       </c>
       <c r="D4">
-        <v>1.073125113414827</v>
+        <v>1.074923197423882</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.079834398879717</v>
+        <v>1.084957094286641</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.080421281728369</v>
+        <v>1.062552616829222</v>
       </c>
       <c r="J4">
-        <v>1.081243222442507</v>
+        <v>1.078066962681163</v>
       </c>
       <c r="K4">
-        <v>1.082414370184348</v>
+        <v>1.077312557013944</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.089056095263482</v>
+        <v>1.087323245960328</v>
       </c>
       <c r="N4">
-        <v>1.082778711838707</v>
+        <v>1.079597941424179</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.064956158296139</v>
+        <v>1.074043697395887</v>
       </c>
       <c r="D5">
-        <v>1.074419530124546</v>
+        <v>1.075190367086041</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.081274919298576</v>
+        <v>1.085262717629916</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.08112633013915</v>
+        <v>1.062674063692369</v>
       </c>
       <c r="J5">
-        <v>1.082418555899197</v>
+        <v>1.078307285094239</v>
       </c>
       <c r="K5">
-        <v>1.083491518656725</v>
+        <v>1.077529400981081</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.090279782134081</v>
+        <v>1.087578973846526</v>
       </c>
       <c r="N5">
-        <v>1.083955714403717</v>
+        <v>1.079838605122646</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.065227539710119</v>
+        <v>1.074099780355229</v>
       </c>
       <c r="D6">
-        <v>1.074635781385975</v>
+        <v>1.075235215058377</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.081515623597747</v>
+        <v>1.085314026741824</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.081243944132321</v>
+        <v>1.062694431344948</v>
       </c>
       <c r="J6">
-        <v>1.082614812799969</v>
+        <v>1.078347617731708</v>
       </c>
       <c r="K6">
-        <v>1.083671364206779</v>
+        <v>1.077565790364056</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.090484160397517</v>
+        <v>1.087621896956231</v>
       </c>
       <c r="N6">
-        <v>1.0841522500118</v>
+        <v>1.079878995037088</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.063353438368052</v>
+        <v>1.073714081638604</v>
       </c>
       <c r="D7">
-        <v>1.073142482822103</v>
+        <v>1.074926768095495</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.079853725838727</v>
+        <v>1.084961178470318</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.080430754314703</v>
+        <v>1.062554241204349</v>
       </c>
       <c r="J7">
-        <v>1.081259000625554</v>
+        <v>1.078070175125496</v>
       </c>
       <c r="K7">
-        <v>1.082428831389264</v>
+        <v>1.077315455813034</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.089072519374116</v>
+        <v>1.087326663996929</v>
       </c>
       <c r="N7">
-        <v>1.082794512428583</v>
+        <v>1.079601158430552</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.055312051478646</v>
+        <v>1.07210036791965</v>
       </c>
       <c r="D8">
-        <v>1.066737634246183</v>
+        <v>1.07363590851626</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.072732220600881</v>
+        <v>1.083485392558458</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.076917181360533</v>
+        <v>1.061964815970072</v>
       </c>
       <c r="J8">
-        <v>1.075428989422584</v>
+        <v>1.076907812454246</v>
       </c>
       <c r="K8">
-        <v>1.077083569079947</v>
+        <v>1.076266239805085</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.083009509952187</v>
+        <v>1.0860904950177</v>
       </c>
       <c r="N8">
-        <v>1.076956221940994</v>
+        <v>1.078437145070984</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.040275203522981</v>
+        <v>1.069250748940058</v>
       </c>
       <c r="D9">
-        <v>1.054775485842393</v>
+        <v>1.07135510213928</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.059455990688277</v>
+        <v>1.080881210689818</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.070255779638865</v>
+        <v>1.060913083539198</v>
       </c>
       <c r="J9">
-        <v>1.064481728740393</v>
+        <v>1.074849286449386</v>
       </c>
       <c r="K9">
-        <v>1.067038259823266</v>
+        <v>1.074406502245883</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.071652846120692</v>
+        <v>1.083904010752167</v>
       </c>
       <c r="N9">
-        <v>1.065993414892965</v>
+        <v>1.07637569572308</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.029579765204532</v>
+        <v>1.067346761157851</v>
       </c>
       <c r="D10">
-        <v>1.046281582108154</v>
+        <v>1.06983032643094</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.050044995318991</v>
+        <v>1.079142510844312</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.06545842827803</v>
+        <v>1.060203058338178</v>
       </c>
       <c r="J10">
-        <v>1.056667025006256</v>
+        <v>1.073469895099865</v>
       </c>
       <c r="K10">
-        <v>1.059862632911049</v>
+        <v>1.073159253641466</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.063565867766325</v>
+        <v>1.08244073152349</v>
       </c>
       <c r="N10">
-        <v>1.058167613383167</v>
+        <v>1.074994345479625</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.024767084075807</v>
+        <v>1.066521267759813</v>
       </c>
       <c r="D11">
-        <v>1.042464161558867</v>
+        <v>1.069169052275975</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.045819066263425</v>
+        <v>1.078388995749218</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.06328636488288</v>
+        <v>1.059893489792527</v>
       </c>
       <c r="J11">
-        <v>1.053144625641009</v>
+        <v>1.072870906247011</v>
       </c>
       <c r="K11">
-        <v>1.056627363760879</v>
+        <v>1.072617396406359</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.059925711859266</v>
+        <v>1.081805756066869</v>
       </c>
       <c r="N11">
-        <v>1.054640211806796</v>
+        <v>1.074394505993895</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.022950035798143</v>
+        <v>1.066214480877831</v>
       </c>
       <c r="D12">
-        <v>1.0410236822161</v>
+        <v>1.06892326774566</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.044224976650739</v>
+        <v>1.078109007098555</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.06246434704494</v>
+        <v>1.059778181859622</v>
       </c>
       <c r="J12">
-        <v>1.051813895773755</v>
+        <v>1.072648156774546</v>
       </c>
       <c r="K12">
-        <v>1.055404988993818</v>
+        <v>1.072415855356138</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.058551262836343</v>
+        <v>1.081569690387624</v>
       </c>
       <c r="N12">
-        <v>1.053307592150494</v>
+        <v>1.074171440191628</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.023341166234306</v>
+        <v>1.06628029508727</v>
       </c>
       <c r="D13">
-        <v>1.041333715796963</v>
+        <v>1.068975996540745</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.044568047603819</v>
+        <v>1.078169070160898</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.062641378059716</v>
+        <v>1.059802930324264</v>
       </c>
       <c r="J13">
-        <v>1.05210037978904</v>
+        <v>1.072695949022388</v>
       </c>
       <c r="K13">
-        <v>1.055668151050897</v>
+        <v>1.072459098900395</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.058847123806339</v>
+        <v>1.081620336705228</v>
       </c>
       <c r="N13">
-        <v>1.053594483005942</v>
+        <v>1.074219300309945</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.02461749930242</v>
+        <v>1.066495911983063</v>
       </c>
       <c r="D14">
-        <v>1.042345560071213</v>
+        <v>1.069148738883128</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.045687806470005</v>
+        <v>1.078365853845918</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.063218733062017</v>
+        <v>1.059883964947074</v>
       </c>
       <c r="J14">
-        <v>1.053035092544859</v>
+        <v>1.072852498990395</v>
       </c>
       <c r="K14">
-        <v>1.05652675175101</v>
+        <v>1.072600742504147</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.059812564495724</v>
+        <v>1.081786247050982</v>
       </c>
       <c r="N14">
-        <v>1.054530523161086</v>
+        <v>1.074376072596863</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.025399926102151</v>
+        <v>1.066628739113122</v>
       </c>
       <c r="D15">
-        <v>1.042965957282838</v>
+        <v>1.069255150157124</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.046374440325162</v>
+        <v>1.078487085498231</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.063572413208465</v>
+        <v>1.059933850554443</v>
       </c>
       <c r="J15">
-        <v>1.053607989228984</v>
+        <v>1.072948920286388</v>
       </c>
       <c r="K15">
-        <v>1.057052983246928</v>
+        <v>1.072687977808722</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.060404396451097</v>
+        <v>1.081888442322671</v>
       </c>
       <c r="N15">
-        <v>1.055104233424215</v>
+        <v>1.074472630822156</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.02989516585246</v>
+        <v>1.06740152392762</v>
       </c>
       <c r="D16">
-        <v>1.046531862944242</v>
+        <v>1.069874191000551</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.050322134091248</v>
+        <v>1.079192505327676</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.065600502936255</v>
+        <v>1.060223558531928</v>
       </c>
       <c r="J16">
-        <v>1.056897747967685</v>
+        <v>1.073509611922648</v>
       </c>
       <c r="K16">
-        <v>1.060074530732315</v>
+        <v>1.073195177016135</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.063804408755332</v>
+        <v>1.082482843778354</v>
       </c>
       <c r="N16">
-        <v>1.058398663997665</v>
+        <v>1.075034118704852</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.032664881317249</v>
+        <v>1.067885986732622</v>
       </c>
       <c r="D17">
-        <v>1.048730259403741</v>
+        <v>1.070262220002514</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>1.052756856308665</v>
+        <v>1.079634821712041</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.066846635951717</v>
+        <v>1.060404715301682</v>
       </c>
       <c r="J17">
-        <v>1.058923190459787</v>
+        <v>1.07386086123108</v>
       </c>
       <c r="K17">
-        <v>1.061934610692346</v>
+        <v>1.073512848822317</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>1.065899047476388</v>
+        <v>1.082855328789231</v>
       </c>
       <c r="N17">
-        <v>1.060426982850427</v>
+        <v>1.075385866827591</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.034263054496936</v>
+        <v>1.068168464221405</v>
       </c>
       <c r="D18">
-        <v>1.049999200221302</v>
+        <v>1.070488450924395</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>1.054162553407067</v>
+        <v>1.079892755156585</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.067564410612015</v>
+        <v>1.060510176245139</v>
       </c>
       <c r="J18">
-        <v>1.060091337353978</v>
+        <v>1.074065574833041</v>
       </c>
       <c r="K18">
-        <v>1.063007298285184</v>
+        <v>1.073697968816236</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>1.067107568845556</v>
+        <v>1.083072461362834</v>
       </c>
       <c r="N18">
-        <v>1.061596788647196</v>
+        <v>1.075590871146348</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.034805107883215</v>
+        <v>1.068264764639822</v>
       </c>
       <c r="D19">
-        <v>1.050429657255177</v>
+        <v>1.070565572955099</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>1.054639460731228</v>
+        <v>1.079980693315678</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.067807642243142</v>
+        <v>1.060546101018147</v>
       </c>
       <c r="J19">
-        <v>1.060487440260297</v>
+        <v>1.074135349107107</v>
       </c>
       <c r="K19">
-        <v>1.063371016638877</v>
+        <v>1.073761060739983</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>1.067517440713797</v>
+        <v>1.083146475701666</v>
       </c>
       <c r="N19">
-        <v>1.061993454065077</v>
+        <v>1.075660744507885</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.032369526908659</v>
+        <v>1.067834018980651</v>
       </c>
       <c r="D20">
-        <v>1.048495783545659</v>
+        <v>1.070220598505596</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360677</v>
       </c>
       <c r="F20">
-        <v>1.052497138622935</v>
+        <v>1.0795873718045</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.066713882946252</v>
+        <v>1.060385300082537</v>
       </c>
       <c r="J20">
-        <v>1.05870726171608</v>
+        <v>1.073823192504741</v>
       </c>
       <c r="K20">
-        <v>1.061736320027747</v>
+        <v>1.073478783512939</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.065675693241989</v>
+        <v>1.082815378305712</v>
       </c>
       <c r="N20">
-        <v>1.060210747463137</v>
+        <v>1.075348144607339</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.024242481032179</v>
+        <v>1.066432422678256</v>
       </c>
       <c r="D21">
-        <v>1.042048232138134</v>
+        <v>1.069097874944275</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.045358753416524</v>
+        <v>1.078307908724415</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.063049144820753</v>
+        <v>1.059860111126377</v>
       </c>
       <c r="J21">
-        <v>1.052760473132887</v>
+        <v>1.0728064060779</v>
       </c>
       <c r="K21">
-        <v>1.056274497263572</v>
+        <v>1.072559039495635</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.059528895893451</v>
+        <v>1.081737396336618</v>
       </c>
       <c r="N21">
-        <v>1.05425551375805</v>
+        <v>1.074329914227146</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.018961330642183</v>
+        <v>1.065550245125862</v>
       </c>
       <c r="D22">
-        <v>1.037863215625342</v>
+        <v>1.068391059626448</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.040728460034629</v>
+        <v>1.077502882061367</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.060656377958836</v>
+        <v>1.059528049580394</v>
       </c>
       <c r="J22">
-        <v>1.048891277533798</v>
+        <v>1.072165616188799</v>
       </c>
       <c r="K22">
-        <v>1.052720147338141</v>
+        <v>1.071979190076476</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.055534068299743</v>
+        <v>1.081058424475051</v>
       </c>
       <c r="N22">
-        <v>1.050380823457407</v>
+        <v>1.073688214342902</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.021777985647479</v>
+        <v>1.066017994255807</v>
       </c>
       <c r="D23">
-        <v>1.040094771339148</v>
+        <v>1.068765843212785</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>1.04319715830487</v>
+        <v>1.077929697483894</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.061933580955201</v>
+        <v>1.059704257948119</v>
       </c>
       <c r="J23">
-        <v>1.050955309285812</v>
+        <v>1.072505453646007</v>
       </c>
       <c r="K23">
-        <v>1.054616281893787</v>
+        <v>1.072286728754109</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.057664688211922</v>
+        <v>1.081418474998401</v>
       </c>
       <c r="N23">
-        <v>1.052447786371257</v>
+        <v>1.07402853440828</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.032503038326307</v>
+        <v>1.067857501284274</v>
       </c>
       <c r="D24">
-        <v>1.048601774222771</v>
+        <v>1.070239405776944</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.052614538347607</v>
+        <v>1.079608812567514</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.066773896282948</v>
+        <v>1.060394073616925</v>
       </c>
       <c r="J24">
-        <v>1.058804871482893</v>
+        <v>1.073840213887983</v>
       </c>
       <c r="K24">
-        <v>1.061825956844778</v>
+        <v>1.073494176693191</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.065776658226814</v>
+        <v>1.082833430616271</v>
       </c>
       <c r="N24">
-        <v>1.060308495847015</v>
+        <v>1.075365190162898</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.044273881796837</v>
+        <v>1.069988178557669</v>
       </c>
       <c r="D25">
-        <v>1.057954391413232</v>
+        <v>1.071945484503146</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.062981331541996</v>
+        <v>1.08155489987581</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.07203754482521</v>
+        <v>1.061186539922608</v>
       </c>
       <c r="J25">
-        <v>1.067397899996315</v>
+        <v>1.075382696958984</v>
       </c>
       <c r="K25">
-        <v>1.069715045232511</v>
+        <v>1.074888589700419</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.074674734051213</v>
+        <v>1.084470252194629</v>
       </c>
       <c r="N25">
-        <v>1.06891372744656</v>
+        <v>1.076909863736785</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_29/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.071684527833219</v>
+        <v>1.053185999211035</v>
       </c>
       <c r="D2">
-        <v>1.073303175105101</v>
+        <v>1.06504506757755</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.083105220937883</v>
+        <v>1.070851901955142</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.061812187877856</v>
+        <v>1.075982104682467</v>
       </c>
       <c r="J2">
-        <v>1.076607878401696</v>
+        <v>1.073884495707602</v>
       </c>
       <c r="K2">
-        <v>1.075995393738399</v>
+        <v>1.07566692087522</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.085771702332616</v>
+        <v>1.081405117984605</v>
       </c>
       <c r="N2">
-        <v>1.078136785077677</v>
+        <v>1.07540953486778</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.072914509975875</v>
+        <v>1.059410003646061</v>
       </c>
       <c r="D3">
-        <v>1.074287236733825</v>
+        <v>1.070001031555437</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.084229850560326</v>
+        <v>1.076359501427747</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062262765656662</v>
+        <v>1.078712482029983</v>
       </c>
       <c r="J3">
-        <v>1.077494556110752</v>
+        <v>1.078402434590993</v>
       </c>
       <c r="K3">
-        <v>1.076795953142709</v>
+        <v>1.07981023364036</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.086714349908488</v>
+        <v>1.08610039210548</v>
       </c>
       <c r="N3">
-        <v>1.079024721970782</v>
+        <v>1.0799338897426</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.073709616925371</v>
+        <v>1.063331638108284</v>
       </c>
       <c r="D4">
-        <v>1.074923197423882</v>
+        <v>1.073125113414825</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.084957094286641</v>
+        <v>1.079834398879716</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.062552616829222</v>
+        <v>1.080421281728368</v>
       </c>
       <c r="J4">
-        <v>1.078066962681163</v>
+        <v>1.081243222442506</v>
       </c>
       <c r="K4">
-        <v>1.077312557013944</v>
+        <v>1.082414370184346</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.087323245960328</v>
+        <v>1.08905609526348</v>
       </c>
       <c r="N4">
-        <v>1.079597941424179</v>
+        <v>1.082778711838705</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.074043697395887</v>
+        <v>1.064956158296138</v>
       </c>
       <c r="D5">
-        <v>1.075190367086041</v>
+        <v>1.074419530124545</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.085262717629916</v>
+        <v>1.081274919298575</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062674063692369</v>
+        <v>1.081126330139149</v>
       </c>
       <c r="J5">
-        <v>1.078307285094239</v>
+        <v>1.082418555899196</v>
       </c>
       <c r="K5">
-        <v>1.077529400981081</v>
+        <v>1.083491518656724</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.087578973846526</v>
+        <v>1.09027978213408</v>
       </c>
       <c r="N5">
-        <v>1.079838605122646</v>
+        <v>1.083955714403716</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.074099780355229</v>
+        <v>1.065227539710118</v>
       </c>
       <c r="D6">
-        <v>1.075235215058377</v>
+        <v>1.074635781385974</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.085314026741824</v>
+        <v>1.081515623597746</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062694431344948</v>
+        <v>1.08124394413232</v>
       </c>
       <c r="J6">
-        <v>1.078347617731708</v>
+        <v>1.082614812799968</v>
       </c>
       <c r="K6">
-        <v>1.077565790364056</v>
+        <v>1.083671364206777</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.087621896956231</v>
+        <v>1.090484160397515</v>
       </c>
       <c r="N6">
-        <v>1.079878995037088</v>
+        <v>1.084152250011798</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.073714081638604</v>
+        <v>1.063353438368049</v>
       </c>
       <c r="D7">
-        <v>1.074926768095495</v>
+        <v>1.0731424828221</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.084961178470318</v>
+        <v>1.079853725838725</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.062554241204349</v>
+        <v>1.080430754314701</v>
       </c>
       <c r="J7">
-        <v>1.078070175125496</v>
+        <v>1.081259000625551</v>
       </c>
       <c r="K7">
-        <v>1.077315455813034</v>
+        <v>1.082428831389262</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.087326663996929</v>
+        <v>1.089072519374113</v>
       </c>
       <c r="N7">
-        <v>1.079601158430552</v>
+        <v>1.082794512428581</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.07210036791965</v>
+        <v>1.055312051478647</v>
       </c>
       <c r="D8">
-        <v>1.07363590851626</v>
+        <v>1.066737634246183</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.083485392558458</v>
+        <v>1.072732220600882</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.061964815970072</v>
+        <v>1.076917181360534</v>
       </c>
       <c r="J8">
-        <v>1.076907812454246</v>
+        <v>1.075428989422585</v>
       </c>
       <c r="K8">
-        <v>1.076266239805085</v>
+        <v>1.077083569079948</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.0860904950177</v>
+        <v>1.083009509952187</v>
       </c>
       <c r="N8">
-        <v>1.078437145070984</v>
+        <v>1.076956221940995</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.069250748940058</v>
+        <v>1.040275203522983</v>
       </c>
       <c r="D9">
-        <v>1.07135510213928</v>
+        <v>1.054775485842395</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.080881210689818</v>
+        <v>1.059455990688279</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.060913083539198</v>
+        <v>1.070255779638866</v>
       </c>
       <c r="J9">
-        <v>1.074849286449386</v>
+        <v>1.064481728740395</v>
       </c>
       <c r="K9">
-        <v>1.074406502245883</v>
+        <v>1.067038259823267</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.083904010752167</v>
+        <v>1.071652846120693</v>
       </c>
       <c r="N9">
-        <v>1.07637569572308</v>
+        <v>1.065993414892967</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.067346761157851</v>
+        <v>1.029579765204534</v>
       </c>
       <c r="D10">
-        <v>1.06983032643094</v>
+        <v>1.046281582108155</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.079142510844312</v>
+        <v>1.050044995318993</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.060203058338178</v>
+        <v>1.065458428278031</v>
       </c>
       <c r="J10">
-        <v>1.073469895099865</v>
+        <v>1.056667025006258</v>
       </c>
       <c r="K10">
-        <v>1.073159253641466</v>
+        <v>1.05986263291105</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.08244073152349</v>
+        <v>1.063565867766326</v>
       </c>
       <c r="N10">
-        <v>1.074994345479625</v>
+        <v>1.058167613383168</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.066521267759813</v>
+        <v>1.024767084075806</v>
       </c>
       <c r="D11">
-        <v>1.069169052275975</v>
+        <v>1.042464161558867</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.078388995749218</v>
+        <v>1.045819066263425</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.059893489792527</v>
+        <v>1.06328636488288</v>
       </c>
       <c r="J11">
-        <v>1.072870906247011</v>
+        <v>1.053144625641008</v>
       </c>
       <c r="K11">
-        <v>1.072617396406359</v>
+        <v>1.056627363760879</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.081805756066869</v>
+        <v>1.059925711859266</v>
       </c>
       <c r="N11">
-        <v>1.074394505993895</v>
+        <v>1.054640211806795</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.066214480877831</v>
+        <v>1.022950035798143</v>
       </c>
       <c r="D12">
-        <v>1.06892326774566</v>
+        <v>1.041023682216099</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.078109007098555</v>
+        <v>1.044224976650738</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.059778181859622</v>
+        <v>1.062464347044939</v>
       </c>
       <c r="J12">
-        <v>1.072648156774546</v>
+        <v>1.051813895773755</v>
       </c>
       <c r="K12">
-        <v>1.072415855356138</v>
+        <v>1.055404988993818</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.081569690387624</v>
+        <v>1.058551262836343</v>
       </c>
       <c r="N12">
-        <v>1.074171440191628</v>
+        <v>1.053307592150493</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.06628029508727</v>
+        <v>1.023341166234305</v>
       </c>
       <c r="D13">
-        <v>1.068975996540745</v>
+        <v>1.041333715796963</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.078169070160898</v>
+        <v>1.044568047603819</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.059802930324264</v>
+        <v>1.062641378059716</v>
       </c>
       <c r="J13">
-        <v>1.072695949022388</v>
+        <v>1.05210037978904</v>
       </c>
       <c r="K13">
-        <v>1.072459098900395</v>
+        <v>1.055668151050897</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.081620336705228</v>
+        <v>1.058847123806339</v>
       </c>
       <c r="N13">
-        <v>1.074219300309945</v>
+        <v>1.05359448300594</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.066495911983063</v>
+        <v>1.024617499302418</v>
       </c>
       <c r="D14">
-        <v>1.069148738883128</v>
+        <v>1.042345560071212</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.078365853845918</v>
+        <v>1.045687806470003</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.059883964947074</v>
+        <v>1.063218733062016</v>
       </c>
       <c r="J14">
-        <v>1.072852498990395</v>
+        <v>1.053035092544857</v>
       </c>
       <c r="K14">
-        <v>1.072600742504147</v>
+        <v>1.056526751751009</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.081786247050982</v>
+        <v>1.059812564495722</v>
       </c>
       <c r="N14">
-        <v>1.074376072596863</v>
+        <v>1.054530523161084</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.066628739113122</v>
+        <v>1.02539992610215</v>
       </c>
       <c r="D15">
-        <v>1.069255150157124</v>
+        <v>1.042965957282838</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.933278105071747</v>
       </c>
       <c r="F15">
-        <v>1.078487085498231</v>
+        <v>1.046374440325161</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.059933850554443</v>
+        <v>1.063572413208465</v>
       </c>
       <c r="J15">
-        <v>1.072948920286388</v>
+        <v>1.053607989228983</v>
       </c>
       <c r="K15">
-        <v>1.072687977808722</v>
+        <v>1.057052983246928</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.081888442322671</v>
+        <v>1.060404396451096</v>
       </c>
       <c r="N15">
-        <v>1.074472630822156</v>
+        <v>1.055104233424214</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.06740152392762</v>
+        <v>1.02989516585246</v>
       </c>
       <c r="D16">
-        <v>1.069874191000551</v>
+        <v>1.046531862944241</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.079192505327676</v>
+        <v>1.050322134091248</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.060223558531928</v>
+        <v>1.065600502936254</v>
       </c>
       <c r="J16">
-        <v>1.073509611922648</v>
+        <v>1.056897747967684</v>
       </c>
       <c r="K16">
-        <v>1.073195177016135</v>
+        <v>1.060074530732314</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175718</v>
       </c>
       <c r="M16">
-        <v>1.082482843778354</v>
+        <v>1.063804408755332</v>
       </c>
       <c r="N16">
-        <v>1.075034118704852</v>
+        <v>1.058398663997665</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.067885986732622</v>
+        <v>1.032664881317249</v>
       </c>
       <c r="D17">
-        <v>1.070262220002514</v>
+        <v>1.048730259403742</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.079634821712041</v>
+        <v>1.052756856308665</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.060404715301682</v>
+        <v>1.066846635951717</v>
       </c>
       <c r="J17">
-        <v>1.07386086123108</v>
+        <v>1.058923190459788</v>
       </c>
       <c r="K17">
-        <v>1.073512848822317</v>
+        <v>1.061934610692347</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068055</v>
       </c>
       <c r="M17">
-        <v>1.082855328789231</v>
+        <v>1.065899047476389</v>
       </c>
       <c r="N17">
-        <v>1.075385866827591</v>
+        <v>1.060426982850428</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.068168464221405</v>
+        <v>1.034263054496934</v>
       </c>
       <c r="D18">
-        <v>1.070488450924395</v>
+        <v>1.049999200221301</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.9393832867215683</v>
       </c>
       <c r="F18">
-        <v>1.079892755156585</v>
+        <v>1.054162553407065</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.060510176245139</v>
+        <v>1.067564410612015</v>
       </c>
       <c r="J18">
-        <v>1.074065574833041</v>
+        <v>1.060091337353976</v>
       </c>
       <c r="K18">
-        <v>1.073697968816236</v>
+        <v>1.063007298285182</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>1.083072461362834</v>
+        <v>1.067107568845555</v>
       </c>
       <c r="N18">
-        <v>1.075590871146348</v>
+        <v>1.061596788647195</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.068264764639822</v>
+        <v>1.034805107883213</v>
       </c>
       <c r="D19">
-        <v>1.070565572955099</v>
+        <v>1.050429657255175</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>1.079980693315678</v>
+        <v>1.054639460731227</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.060546101018147</v>
+        <v>1.067807642243141</v>
       </c>
       <c r="J19">
-        <v>1.074135349107107</v>
+        <v>1.060487440260296</v>
       </c>
       <c r="K19">
-        <v>1.073761060739983</v>
+        <v>1.063371016638876</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.9546352493816593</v>
       </c>
       <c r="M19">
-        <v>1.083146475701666</v>
+        <v>1.067517440713796</v>
       </c>
       <c r="N19">
-        <v>1.075660744507885</v>
+        <v>1.061993454065075</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.067834018980651</v>
+        <v>1.032369526908659</v>
       </c>
       <c r="D20">
-        <v>1.070220598505596</v>
+        <v>1.048495783545659</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360677</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.0795873718045</v>
+        <v>1.052497138622935</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.060385300082537</v>
+        <v>1.066713882946252</v>
       </c>
       <c r="J20">
-        <v>1.073823192504741</v>
+        <v>1.05870726171608</v>
       </c>
       <c r="K20">
-        <v>1.073478783512939</v>
+        <v>1.061736320027747</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.082815378305712</v>
+        <v>1.065675693241989</v>
       </c>
       <c r="N20">
-        <v>1.075348144607339</v>
+        <v>1.060210747463137</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.066432422678256</v>
+        <v>1.024242481032179</v>
       </c>
       <c r="D21">
-        <v>1.069097874944275</v>
+        <v>1.042048232138135</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.078307908724415</v>
+        <v>1.045358753416524</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.059860111126377</v>
+        <v>1.063049144820753</v>
       </c>
       <c r="J21">
-        <v>1.0728064060779</v>
+        <v>1.052760473132887</v>
       </c>
       <c r="K21">
-        <v>1.072559039495635</v>
+        <v>1.056274497263572</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.081737396336618</v>
+        <v>1.059528895893452</v>
       </c>
       <c r="N21">
-        <v>1.074329914227146</v>
+        <v>1.05425551375805</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.065550245125862</v>
+        <v>1.018961330642184</v>
       </c>
       <c r="D22">
-        <v>1.068391059626448</v>
+        <v>1.037863215625344</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.077502882061367</v>
+        <v>1.04072846003463</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.059528049580394</v>
+        <v>1.060656377958837</v>
       </c>
       <c r="J22">
-        <v>1.072165616188799</v>
+        <v>1.0488912775338</v>
       </c>
       <c r="K22">
-        <v>1.071979190076476</v>
+        <v>1.052720147338142</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.081058424475051</v>
+        <v>1.055534068299744</v>
       </c>
       <c r="N22">
-        <v>1.073688214342902</v>
+        <v>1.050380823457409</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.066017994255807</v>
+        <v>1.021777985647479</v>
       </c>
       <c r="D23">
-        <v>1.068765843212785</v>
+        <v>1.040094771339148</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.077929697483894</v>
+        <v>1.04319715830487</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.059704257948119</v>
+        <v>1.061933580955201</v>
       </c>
       <c r="J23">
-        <v>1.072505453646007</v>
+        <v>1.050955309285813</v>
       </c>
       <c r="K23">
-        <v>1.072286728754109</v>
+        <v>1.054616281893788</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.081418474998401</v>
+        <v>1.057664688211923</v>
       </c>
       <c r="N23">
-        <v>1.07402853440828</v>
+        <v>1.052447786371258</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.067857501284274</v>
+        <v>1.032503038326306</v>
       </c>
       <c r="D24">
-        <v>1.070239405776944</v>
+        <v>1.04860177422277</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.079608812567514</v>
+        <v>1.052614538347606</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.060394073616925</v>
+        <v>1.066773896282947</v>
       </c>
       <c r="J24">
-        <v>1.073840213887983</v>
+        <v>1.058804871482892</v>
       </c>
       <c r="K24">
-        <v>1.073494176693191</v>
+        <v>1.061825956844777</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.082833430616271</v>
+        <v>1.065776658226813</v>
       </c>
       <c r="N24">
-        <v>1.075365190162898</v>
+        <v>1.060308495847014</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.069988178557669</v>
+        <v>1.044273881796836</v>
       </c>
       <c r="D25">
-        <v>1.071945484503146</v>
+        <v>1.05795439141323</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.08155489987581</v>
+        <v>1.062981331541994</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.061186539922608</v>
+        <v>1.072037544825208</v>
       </c>
       <c r="J25">
-        <v>1.075382696958984</v>
+        <v>1.067397899996313</v>
       </c>
       <c r="K25">
-        <v>1.074888589700419</v>
+        <v>1.069715045232509</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.084470252194629</v>
+        <v>1.074674734051211</v>
       </c>
       <c r="N25">
-        <v>1.076909863736785</v>
+        <v>1.068913727446558</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_29/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.053185999211035</v>
+        <v>1.001464511772393</v>
       </c>
       <c r="D2">
-        <v>1.06504506757755</v>
+        <v>1.025705510655415</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680758</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.070851901955142</v>
+        <v>1.032628493745158</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.075982104682467</v>
+        <v>1.046563106489431</v>
       </c>
       <c r="J2">
-        <v>1.073884495707602</v>
+        <v>1.023601507605739</v>
       </c>
       <c r="K2">
-        <v>1.07566692087522</v>
+        <v>1.03681797628484</v>
       </c>
       <c r="L2">
-        <v>0.964870170840339</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.081405117984605</v>
+        <v>1.043651233313061</v>
       </c>
       <c r="N2">
-        <v>1.07540953486778</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011829006563751</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.043119409014723</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.037103759256992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.059410003646061</v>
+        <v>1.004710090385812</v>
       </c>
       <c r="D3">
-        <v>1.070001031555437</v>
+        <v>1.027777683552172</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057846</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.076359501427747</v>
+        <v>1.034854454789729</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.078712482029983</v>
+        <v>1.047023446467158</v>
       </c>
       <c r="J3">
-        <v>1.078402434590993</v>
+        <v>1.025073171974359</v>
       </c>
       <c r="K3">
-        <v>1.07981023364036</v>
+        <v>1.038067064519401</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474063</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.08610039210548</v>
+        <v>1.045059974313784</v>
       </c>
       <c r="N3">
-        <v>1.0799338897426</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012324832979303</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.044234328178115</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.037984304805351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.063331638108284</v>
+        <v>1.006777498977689</v>
       </c>
       <c r="D4">
-        <v>1.073125113414825</v>
+        <v>1.029101219825317</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088611</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.079834398879716</v>
+        <v>1.036277995007038</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.080421281728368</v>
+        <v>1.047307765823219</v>
       </c>
       <c r="J4">
-        <v>1.081243222442506</v>
+        <v>1.026009410309626</v>
       </c>
       <c r="K4">
-        <v>1.082414370184346</v>
+        <v>1.038860661242153</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952755</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.08905609526348</v>
+        <v>1.045957438072512</v>
       </c>
       <c r="N4">
-        <v>1.082778711838705</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012640245667181</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.044944606570075</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.038546344420914</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.064956158296138</v>
+        <v>1.007641723018113</v>
       </c>
       <c r="D5">
-        <v>1.074419530124545</v>
+        <v>1.029657187730459</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.081274919298575</v>
+        <v>1.036875062523697</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.081126330139149</v>
+        <v>1.047425749111916</v>
       </c>
       <c r="J5">
-        <v>1.082418555899196</v>
+        <v>1.026401888769633</v>
       </c>
       <c r="K5">
-        <v>1.083491518656724</v>
+        <v>1.039194415108321</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.09027978213408</v>
+        <v>1.046333942927414</v>
       </c>
       <c r="N5">
-        <v>1.083955714403716</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.01277267817524</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.045242583035614</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.038789519052402</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.065227539710118</v>
+        <v>1.007789686916399</v>
       </c>
       <c r="D6">
-        <v>1.074635781385974</v>
+        <v>1.029754698368319</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017083</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.081515623597746</v>
+        <v>1.036978188903682</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.08124394413232</v>
+        <v>1.047447408210969</v>
       </c>
       <c r="J6">
-        <v>1.082614812799968</v>
+        <v>1.026470787924086</v>
       </c>
       <c r="K6">
-        <v>1.083671364206777</v>
+        <v>1.039254602564841</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965043</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.090484160397515</v>
+        <v>1.04640003885498</v>
       </c>
       <c r="N6">
-        <v>1.084152250011798</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.012796187616171</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.045294893187585</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.038840835309524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.063353438368049</v>
+        <v>1.006797939727397</v>
       </c>
       <c r="D7">
-        <v>1.0731424828221</v>
+        <v>1.029120452631532</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.079853725838725</v>
+        <v>1.036294318890845</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.080430754314701</v>
+        <v>1.047314821443758</v>
       </c>
       <c r="J7">
-        <v>1.081259000625551</v>
+        <v>1.026023309993563</v>
       </c>
       <c r="K7">
-        <v>1.082428831389262</v>
+        <v>1.038876789944132</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.089072519374113</v>
+        <v>1.045970720309318</v>
       </c>
       <c r="N7">
-        <v>1.082794512428581</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.01264564715756</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.044955118505585</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.038577892936805</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.055312051478647</v>
+        <v>1.002579312779512</v>
       </c>
       <c r="D8">
-        <v>1.066737634246183</v>
+        <v>1.026424014724318</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922295</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.072732220600882</v>
+        <v>1.033394624489742</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.076917181360534</v>
+        <v>1.046728279830721</v>
       </c>
       <c r="J8">
-        <v>1.075428989422585</v>
+        <v>1.024112958312883</v>
       </c>
       <c r="K8">
-        <v>1.077083569079948</v>
+        <v>1.037257567382</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537708</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.083009509952187</v>
+        <v>1.044140474316377</v>
       </c>
       <c r="N8">
-        <v>1.076956221940995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012002256268473</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.043506608962816</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.037437534864246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.040275203522983</v>
+        <v>0.9948714054619833</v>
       </c>
       <c r="D9">
-        <v>1.054775485842395</v>
+        <v>1.021517565489028</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925935</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.059455990688279</v>
+        <v>1.028139147244058</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.070255779638866</v>
+        <v>1.045581003253787</v>
       </c>
       <c r="J9">
-        <v>1.064481728740395</v>
+        <v>1.020606576614482</v>
       </c>
       <c r="K9">
-        <v>1.067038259823267</v>
+        <v>1.034270921880693</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834084</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.071652846120693</v>
+        <v>1.040791606881056</v>
       </c>
       <c r="N9">
-        <v>1.065993414892967</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.01082002274575</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.040856211082616</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.03532259478737</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.029579765204534</v>
+        <v>0.989589044006544</v>
       </c>
       <c r="D10">
-        <v>1.046281582108155</v>
+        <v>1.018200007671105</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547281</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.050044995318993</v>
+        <v>1.024644366088439</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.065458428278031</v>
+        <v>1.044770787992113</v>
       </c>
       <c r="J10">
-        <v>1.056667025006258</v>
+        <v>1.018221898876467</v>
       </c>
       <c r="K10">
-        <v>1.05986263291105</v>
+        <v>1.03224825094628</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.063565867766326</v>
+        <v>1.038582472662223</v>
       </c>
       <c r="N10">
-        <v>1.058167613383168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.010019560159297</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.039159224126234</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.033909282949441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.024767084075806</v>
+        <v>0.9875993772971596</v>
       </c>
       <c r="D11">
-        <v>1.042464161558867</v>
+        <v>1.017125536592171</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016256</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.045819066263425</v>
+        <v>1.023916580044845</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.06328636488288</v>
+        <v>1.044610002591492</v>
       </c>
       <c r="J11">
-        <v>1.053144625641008</v>
+        <v>1.017497293520918</v>
       </c>
       <c r="K11">
-        <v>1.056627363760879</v>
+        <v>1.031731558997674</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.059925711859266</v>
+        <v>1.038401132389283</v>
       </c>
       <c r="N11">
-        <v>1.054640211806795</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.009805403907954</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.039451432370139</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.033576866976192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022950035798143</v>
+        <v>0.9869685640051492</v>
       </c>
       <c r="D12">
-        <v>1.041023682216099</v>
+        <v>1.016849435766373</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.044224976650738</v>
+        <v>1.023926497554925</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.062464347044939</v>
+        <v>1.044616847889525</v>
       </c>
       <c r="J12">
-        <v>1.051813895773755</v>
+        <v>1.01733486368881</v>
       </c>
       <c r="K12">
-        <v>1.055404988993818</v>
+        <v>1.031660793342496</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.058551262836343</v>
+        <v>1.038609224568384</v>
       </c>
       <c r="N12">
-        <v>1.053307592150493</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.009773835093341</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.039942026612253</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.03352683319674</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.023341166234305</v>
+        <v>0.9873538361240599</v>
       </c>
       <c r="D13">
-        <v>1.041333715796963</v>
+        <v>1.017185741518922</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368229</v>
+        <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.044568047603819</v>
+        <v>1.02452739967576</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.062641378059716</v>
+        <v>1.044765697863112</v>
       </c>
       <c r="J13">
-        <v>1.05210037978904</v>
+        <v>1.017608599513003</v>
       </c>
       <c r="K13">
-        <v>1.055668151050897</v>
+        <v>1.031947979439514</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.058847123806339</v>
+        <v>1.039156802161123</v>
       </c>
       <c r="N13">
-        <v>1.05359448300594</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.009886467405232</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.040651332674645</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.033727386723396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.024617499302418</v>
+        <v>0.9880847634801071</v>
       </c>
       <c r="D14">
-        <v>1.042345560071212</v>
+        <v>1.017699698137372</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.045687806470003</v>
+        <v>1.025215777804912</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.063218733062016</v>
+        <v>1.044934206257917</v>
       </c>
       <c r="J14">
-        <v>1.053035092544857</v>
+        <v>1.017998146718369</v>
       </c>
       <c r="K14">
-        <v>1.056526751751009</v>
+        <v>1.032311910766307</v>
       </c>
       <c r="L14">
-        <v>0.949074550976452</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.059812564495722</v>
+        <v>1.039693696200663</v>
       </c>
       <c r="N14">
-        <v>1.054530523161084</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.010030822597595</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.041248865372976</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.033986126010348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02539992610215</v>
+        <v>0.9884888440950304</v>
       </c>
       <c r="D15">
-        <v>1.042965957282838</v>
+        <v>1.017966204889212</v>
       </c>
       <c r="E15">
-        <v>0.933278105071747</v>
+        <v>0.9332781050737292</v>
       </c>
       <c r="F15">
-        <v>1.046374440325161</v>
+        <v>1.025527086872636</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.063572413208465</v>
+        <v>1.045010433215403</v>
       </c>
       <c r="J15">
-        <v>1.053607989228983</v>
+        <v>1.018194426821051</v>
       </c>
       <c r="K15">
-        <v>1.057052983246928</v>
+        <v>1.032486984810735</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767192</v>
+        <v>0.9494987508782936</v>
       </c>
       <c r="M15">
-        <v>1.060404396451096</v>
+        <v>1.039913792059107</v>
       </c>
       <c r="N15">
-        <v>1.055104233424214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.010099820405782</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.041460325393099</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.03411579043933</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02989516585246</v>
+        <v>0.9906508602156898</v>
       </c>
       <c r="D16">
-        <v>1.046531862944241</v>
+        <v>1.019312694353662</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017261</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.050322134091248</v>
+        <v>1.026923942352213</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.065600502936254</v>
+        <v>1.045343102546041</v>
       </c>
       <c r="J16">
-        <v>1.056897747967684</v>
+        <v>1.019162393459953</v>
       </c>
       <c r="K16">
-        <v>1.060074530732314</v>
+        <v>1.033306112429379</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175718</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.063804408755332</v>
+        <v>1.040788214877512</v>
       </c>
       <c r="N16">
-        <v>1.058398663997665</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.010421007677623</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.042112789834036</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.034698118918878</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032664881317249</v>
+        <v>0.9919288876038779</v>
       </c>
       <c r="D17">
-        <v>1.048730259403742</v>
+        <v>1.020077933843807</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.052756856308665</v>
+        <v>1.0276310221628</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.066846635951717</v>
+        <v>1.045507469607892</v>
       </c>
       <c r="J17">
-        <v>1.058923190459788</v>
+        <v>1.019700799461646</v>
       </c>
       <c r="K17">
-        <v>1.061934610692347</v>
+        <v>1.03374285009686</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068055</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.065899047476389</v>
+        <v>1.04117132433692</v>
       </c>
       <c r="N17">
-        <v>1.060426982850428</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.010591681199201</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.042286703762134</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.035009504054572</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.034263054496934</v>
+        <v>0.9925544318831605</v>
       </c>
       <c r="D18">
-        <v>1.049999200221301</v>
+        <v>1.020391586538907</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215683</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.054162553407065</v>
+        <v>1.027763885725069</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.067564410612015</v>
+        <v>1.045531656365829</v>
       </c>
       <c r="J18">
-        <v>1.060091337353976</v>
+        <v>1.019901705115719</v>
       </c>
       <c r="K18">
-        <v>1.063007298285182</v>
+        <v>1.033867379085275</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.067107568845555</v>
+        <v>1.041119990155212</v>
       </c>
       <c r="N18">
-        <v>1.061596788647195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.010641622430705</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.042008691499958</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.035085895055941</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.034805107883213</v>
+        <v>0.9925937521681597</v>
       </c>
       <c r="D19">
-        <v>1.050429657255175</v>
+        <v>1.020305164202416</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.054639460731227</v>
+        <v>1.027376488096797</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.067807642243141</v>
+        <v>1.045434651687644</v>
       </c>
       <c r="J19">
-        <v>1.060487440260296</v>
+        <v>1.019803225820445</v>
       </c>
       <c r="K19">
-        <v>1.063371016638876</v>
+        <v>1.033719657929747</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816593</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.067517440713796</v>
+        <v>1.04067672444967</v>
       </c>
       <c r="N19">
-        <v>1.061993454065075</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.010586898822144</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.041333072035834</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.034987857205036</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.032369526908659</v>
+        <v>0.9909791494446083</v>
       </c>
       <c r="D20">
-        <v>1.048495783545659</v>
+        <v>1.019087343422494</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.052497138622935</v>
+        <v>1.025571030809775</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.066713882946252</v>
+        <v>1.044998283712569</v>
       </c>
       <c r="J20">
-        <v>1.05870726171608</v>
+        <v>1.018862293916779</v>
       </c>
       <c r="K20">
-        <v>1.061736320027747</v>
+        <v>1.032802667654006</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.065675693241989</v>
+        <v>1.03917866849094</v>
       </c>
       <c r="N20">
-        <v>1.060210747463137</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.010236775088024</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.039620509344587</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.034343433907677</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.024242481032179</v>
+        <v>0.9869553342756333</v>
       </c>
       <c r="D21">
-        <v>1.042048232138135</v>
+        <v>1.01653309405379</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148896</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.045358753416524</v>
+        <v>1.022806953469705</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.063049144820753</v>
+        <v>1.044334660746212</v>
       </c>
       <c r="J21">
-        <v>1.052760473132887</v>
+        <v>1.017008756501377</v>
       </c>
       <c r="K21">
-        <v>1.056274497263572</v>
+        <v>1.031207868664876</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.059528895893452</v>
+        <v>1.037368751179955</v>
       </c>
       <c r="N21">
-        <v>1.05425551375805</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.009609123946096</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.038147246528198</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.033219075460399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.018961330642184</v>
+        <v>0.9843934648514496</v>
       </c>
       <c r="D22">
-        <v>1.037863215625344</v>
+        <v>1.014916858910079</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.04072846003463</v>
+        <v>1.02108950307603</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.060656377958837</v>
+        <v>1.043908943197294</v>
       </c>
       <c r="J22">
-        <v>1.0488912775338</v>
+        <v>1.015834262845932</v>
       </c>
       <c r="K22">
-        <v>1.052720147338142</v>
+        <v>1.030198490818691</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.055534068299744</v>
+        <v>1.036254438636055</v>
       </c>
       <c r="N22">
-        <v>1.050380823457409</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009212178640335</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.037265339426437</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.032491861269202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.021777985647479</v>
+        <v>0.9857476040416733</v>
       </c>
       <c r="D23">
-        <v>1.040094771339148</v>
+        <v>1.015765299067169</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.04319715830487</v>
+        <v>1.021994531391185</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.061933580955201</v>
+        <v>1.044131195701837</v>
       </c>
       <c r="J23">
-        <v>1.050955309285813</v>
+        <v>1.016451021399791</v>
       </c>
       <c r="K23">
-        <v>1.054616281893788</v>
+        <v>1.030725047502593</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285314</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.057664688211923</v>
+        <v>1.036839487687961</v>
       </c>
       <c r="N23">
-        <v>1.052447786371258</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.009419844173708</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.037728368464414</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.032854505510366</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.032503038326306</v>
+        <v>0.9909991236623248</v>
       </c>
       <c r="D24">
-        <v>1.04860177422277</v>
+        <v>1.019075222535017</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.052614538347606</v>
+        <v>1.025523721869165</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.066773896282947</v>
+        <v>1.044980899669644</v>
       </c>
       <c r="J24">
-        <v>1.058804871482892</v>
+        <v>1.018848112257001</v>
       </c>
       <c r="K24">
-        <v>1.061825956844777</v>
+        <v>1.032775436861012</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.065776658226813</v>
+        <v>1.039116963294662</v>
       </c>
       <c r="N24">
-        <v>1.060308495847014</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.010228258856111</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.039530842401251</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.034296718953471</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.044273881796836</v>
+        <v>0.9969103866112996</v>
       </c>
       <c r="D25">
-        <v>1.05795439141323</v>
+        <v>1.02282110254052</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718014</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.062981331541994</v>
+        <v>1.029527177144325</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.072037544825208</v>
+        <v>1.045898815838338</v>
       </c>
       <c r="J25">
-        <v>1.067397899996313</v>
+        <v>1.021542177827144</v>
       </c>
       <c r="K25">
-        <v>1.069715045232509</v>
+        <v>1.035075186344675</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.074674734051211</v>
+        <v>1.041683783285978</v>
       </c>
       <c r="N25">
-        <v>1.068913727446558</v>
+        <v>1.011136722735806</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.041562308194597</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.035919899921409</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_29/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001464511772393</v>
+        <v>1.001367461477652</v>
       </c>
       <c r="D2">
-        <v>1.025705510655415</v>
+        <v>1.025170345744351</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9527101846680759</v>
       </c>
       <c r="F2">
-        <v>1.032628493745158</v>
+        <v>1.032302901388766</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.046563106489431</v>
+        <v>1.046344134587824</v>
       </c>
       <c r="J2">
-        <v>1.023601507605739</v>
+        <v>1.023507348794172</v>
       </c>
       <c r="K2">
-        <v>1.03681797628484</v>
+        <v>1.036289810655276</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.043651233313061</v>
+        <v>1.043329827104265</v>
       </c>
       <c r="N2">
-        <v>1.011829006563751</v>
+        <v>1.013475401963461</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.043119409014723</v>
+        <v>1.042865038425648</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.037103759256992</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.036739090094229</v>
+      </c>
+      <c r="S2">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T2">
+        <v>1.021746386910237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004710090385812</v>
+        <v>1.004506429147387</v>
       </c>
       <c r="D3">
-        <v>1.027777683552172</v>
+        <v>1.027112299859581</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.034854454789729</v>
+        <v>1.034435998594546</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047023446467158</v>
+        <v>1.046747767443898</v>
       </c>
       <c r="J3">
-        <v>1.025073171974359</v>
+        <v>1.024874993707042</v>
       </c>
       <c r="K3">
-        <v>1.038067064519401</v>
+        <v>1.037409639496269</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.045059974313784</v>
+        <v>1.044646437410805</v>
       </c>
       <c r="N3">
-        <v>1.012324832979303</v>
+        <v>1.013841614702508</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.044234328178115</v>
+        <v>1.043907043057058</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.037984304805351</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.037527963168648</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.021946575077901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006777498977689</v>
+        <v>1.006506595574273</v>
       </c>
       <c r="D4">
-        <v>1.029101219825317</v>
+        <v>1.028353300015976</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.036277995007038</v>
+        <v>1.035800775173249</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047307765823219</v>
+        <v>1.046996100584444</v>
       </c>
       <c r="J4">
-        <v>1.026009410309626</v>
+        <v>1.02574531379684</v>
       </c>
       <c r="K4">
-        <v>1.038860661242153</v>
+        <v>1.038121157507115</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.045957438072512</v>
+        <v>1.045485495426894</v>
       </c>
       <c r="N4">
-        <v>1.012640245667181</v>
+        <v>1.014074678198182</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.044944606570075</v>
+        <v>1.044571097798258</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.038546344420914</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038032048813796</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022071462941548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.007641723018113</v>
+        <v>1.0073428695855</v>
       </c>
       <c r="D5">
-        <v>1.029657187730459</v>
+        <v>1.028874915120549</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.036875062523697</v>
+        <v>1.036373399010255</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.047425749111916</v>
+        <v>1.047099091092692</v>
       </c>
       <c r="J5">
-        <v>1.026401888769633</v>
+        <v>1.026110323259404</v>
       </c>
       <c r="K5">
-        <v>1.039194415108321</v>
+        <v>1.038420714819218</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.046333942927414</v>
+        <v>1.045837681498464</v>
       </c>
       <c r="N5">
-        <v>1.01277267817524</v>
+        <v>1.014172598570705</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.045242583035614</v>
+        <v>1.044849827844757</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.038789519052402</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.038251753779495</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022123912414066</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.007789686916399</v>
+        <v>1.007486062871906</v>
       </c>
       <c r="D6">
-        <v>1.029754698368319</v>
+        <v>1.028966612687586</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.036978188903682</v>
+        <v>1.036472381466821</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.047447408210969</v>
+        <v>1.047118206648057</v>
       </c>
       <c r="J6">
-        <v>1.026470787924086</v>
+        <v>1.026174530588805</v>
       </c>
       <c r="K6">
-        <v>1.039254602564841</v>
+        <v>1.038475114018048</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.04640003885498</v>
+        <v>1.045899653573007</v>
       </c>
       <c r="N6">
-        <v>1.012796187616171</v>
+        <v>1.014190030499186</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.045294893187585</v>
+        <v>1.044898874291356</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.038840835309524</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.038299844745016</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022133928921197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006797939727397</v>
+        <v>1.006534069676845</v>
       </c>
       <c r="D7">
-        <v>1.029120452631532</v>
+        <v>1.02837697422312</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.036294318890845</v>
+        <v>1.035820910631603</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047314821443758</v>
+        <v>1.047005218403608</v>
       </c>
       <c r="J7">
-        <v>1.026023309993563</v>
+        <v>1.02576606726044</v>
       </c>
       <c r="K7">
-        <v>1.038876789944132</v>
+        <v>1.038141674412388</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.045970720309318</v>
+        <v>1.045502545120002</v>
       </c>
       <c r="N7">
-        <v>1.01264564715756</v>
+        <v>1.014106632313035</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.044955118505585</v>
+        <v>1.044584591411429</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.038577892936805</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.03806869591199</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022077056750738</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002579312779512</v>
+        <v>1.002469138705939</v>
       </c>
       <c r="D8">
-        <v>1.026424014724318</v>
+        <v>1.025859962304108</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.033394624489742</v>
+        <v>1.033050448429637</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.046728279830721</v>
+        <v>1.046497170968803</v>
       </c>
       <c r="J8">
-        <v>1.024112958312883</v>
+        <v>1.024005958147972</v>
       </c>
       <c r="K8">
-        <v>1.037257567382</v>
+        <v>1.036700676841912</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.044140474316377</v>
+        <v>1.043800593990791</v>
       </c>
       <c r="N8">
-        <v>1.012002256268473</v>
+        <v>1.013688139006303</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.043506608962816</v>
+        <v>1.043237617539672</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.037437534864246</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.037054818724812</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021823802406937</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9948714054619833</v>
+        <v>0.9950220528522246</v>
       </c>
       <c r="D9">
-        <v>1.021517565489028</v>
+        <v>1.021267503493218</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.028139147244058</v>
+        <v>1.028019852387544</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.045581003253787</v>
+        <v>1.045486461083376</v>
       </c>
       <c r="J9">
-        <v>1.020606576614482</v>
+        <v>1.020751828231262</v>
       </c>
       <c r="K9">
-        <v>1.034270921880693</v>
+        <v>1.034024702939701</v>
       </c>
       <c r="L9">
         <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.040791606881056</v>
+        <v>1.040674115140939</v>
       </c>
       <c r="N9">
-        <v>1.01082002274575</v>
+        <v>1.012825742593972</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.040856211082616</v>
+        <v>1.040763224287839</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.03532259478737</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.035159262460419</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021331237842404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.989589044006544</v>
+        <v>0.9899542106756952</v>
       </c>
       <c r="D10">
-        <v>1.018200007671105</v>
+        <v>1.018187599290336</v>
       </c>
       <c r="E10">
         <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.024644366088439</v>
+        <v>1.024698807699124</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044770787992113</v>
+        <v>1.044779752639422</v>
       </c>
       <c r="J10">
-        <v>1.018221898876467</v>
+        <v>1.018572148748277</v>
       </c>
       <c r="K10">
-        <v>1.03224825094628</v>
+        <v>1.032236056368735</v>
       </c>
       <c r="L10">
         <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.038582472662223</v>
+        <v>1.038635991459952</v>
       </c>
       <c r="N10">
-        <v>1.010019560159297</v>
+        <v>1.012361306678421</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.039159224126234</v>
+        <v>1.039201578108019</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.033909282949441</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033913095045549</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.02099779876645</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9875993772971596</v>
+        <v>0.9880783447890181</v>
       </c>
       <c r="D11">
-        <v>1.017125536592171</v>
+        <v>1.01721486330954</v>
       </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.023916580044845</v>
+        <v>1.024049413924112</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.044610002591492</v>
+        <v>1.044661683684447</v>
       </c>
       <c r="J11">
-        <v>1.017497293520918</v>
+        <v>1.017955628423312</v>
       </c>
       <c r="K11">
-        <v>1.031731558997674</v>
+        <v>1.031819274261706</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.038401132389283</v>
+        <v>1.038531611136288</v>
       </c>
       <c r="N11">
-        <v>1.009805403907954</v>
+        <v>1.012445548543125</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.039451432370139</v>
+        <v>1.039554639485112</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.033576866976192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.033654528542486</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020958671809538</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9869685640051492</v>
+        <v>0.9874817127951162</v>
       </c>
       <c r="D12">
-        <v>1.016849435766373</v>
+        <v>1.016965211203341</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.023926497554925</v>
+        <v>1.024080414048316</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044616847889525</v>
+        <v>1.044678289168235</v>
       </c>
       <c r="J12">
-        <v>1.01733486368881</v>
+        <v>1.017825483265479</v>
       </c>
       <c r="K12">
-        <v>1.031660793342496</v>
+        <v>1.031774445719883</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.038609224568384</v>
+        <v>1.038760369194007</v>
       </c>
       <c r="N12">
-        <v>1.009773835093341</v>
+        <v>1.012528329547647</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.039942026612253</v>
+        <v>1.040061539821263</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.03352683319674</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033622833875988</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020976594264522</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9873538361240599</v>
+        <v>0.987830433209104</v>
       </c>
       <c r="D13">
-        <v>1.017185741518922</v>
+        <v>1.017263626258352</v>
       </c>
       <c r="E13">
         <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.02452739967576</v>
+        <v>1.024652901509689</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044765697863112</v>
+        <v>1.04480875471284</v>
       </c>
       <c r="J13">
-        <v>1.017608599513003</v>
+        <v>1.018064371091505</v>
       </c>
       <c r="K13">
-        <v>1.031947979439514</v>
+        <v>1.032024441881659</v>
       </c>
       <c r="L13">
         <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.039156802161123</v>
+        <v>1.039280054737322</v>
       </c>
       <c r="N13">
-        <v>1.009886467405232</v>
+        <v>1.012583775893965</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.040651332674645</v>
+        <v>1.040748766617623</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.033727386723396</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.033796847017955</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021044220057791</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9880847634801071</v>
+        <v>0.9885043536285224</v>
       </c>
       <c r="D14">
-        <v>1.017699698137372</v>
+        <v>1.017722499656966</v>
       </c>
       <c r="E14">
         <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.025215777804912</v>
+        <v>1.025299471747641</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.044934206257917</v>
+        <v>1.044952096123529</v>
       </c>
       <c r="J14">
-        <v>1.017998146718369</v>
+        <v>1.018399659982997</v>
       </c>
       <c r="K14">
-        <v>1.032311910766307</v>
+        <v>1.032334300978317</v>
       </c>
       <c r="L14">
         <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.039693696200663</v>
+        <v>1.039775909111398</v>
       </c>
       <c r="N14">
-        <v>1.010030822597595</v>
+        <v>1.012611603705959</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.041248865372976</v>
+        <v>1.041313847771363</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.033986126010348</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.034017489099181</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021114458909473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,105 +1245,123 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9884888440950304</v>
+        <v>0.9888795729903664</v>
       </c>
       <c r="D15">
-        <v>1.017966204889212</v>
+        <v>1.017961725405906</v>
       </c>
       <c r="E15">
         <v>0.9332781050737292</v>
       </c>
       <c r="F15">
-        <v>1.025527086872636</v>
+        <v>1.025590006596571</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045010433215403</v>
+        <v>1.045016193535304</v>
       </c>
       <c r="J15">
-        <v>1.018194426821051</v>
+        <v>1.01856846718871</v>
       </c>
       <c r="K15">
-        <v>1.032486984810735</v>
+        <v>1.032482585527454</v>
       </c>
       <c r="L15">
         <v>0.9494987508782936</v>
       </c>
       <c r="M15">
-        <v>1.039913792059107</v>
+        <v>1.039975606795849</v>
       </c>
       <c r="N15">
-        <v>1.010099820405782</v>
+        <v>1.012617185373056</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.041460325393099</v>
+        <v>1.041509183462389</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.03411579043933</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.03412878046192</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02114498224493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C16">
-        <v>0.9906508602156898</v>
+        <v>0.9909059279957415</v>
       </c>
       <c r="D16">
-        <v>1.019312694353662</v>
+        <v>1.019179891064913</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.026923942352213</v>
+        <v>1.026889400751035</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045343102546041</v>
+        <v>1.045293234492343</v>
       </c>
       <c r="J16">
-        <v>1.019162393459953</v>
+        <v>1.019407105289381</v>
       </c>
       <c r="K16">
-        <v>1.033306112429379</v>
+        <v>1.03317558463651</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.040788214877512</v>
+        <v>1.040754253792626</v>
       </c>
       <c r="N16">
-        <v>1.010421007677623</v>
+        <v>1.012632061471653</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.042112789834036</v>
+        <v>1.042085946398812</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.034698118918878</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.034622230567801</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02127166447995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9919288876038779</v>
+        <v>0.9921184879043285</v>
       </c>
       <c r="D17">
-        <v>1.020077933843807</v>
+        <v>1.019881350255103</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.0276310221628</v>
+        <v>1.027548506554176</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.045507469607892</v>
+        <v>1.045430487917453</v>
       </c>
       <c r="J17">
-        <v>1.019700799461646</v>
+        <v>1.019882946927252</v>
       </c>
       <c r="K17">
-        <v>1.03374285009686</v>
+        <v>1.033549541573842</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.04117132433692</v>
+        <v>1.041090157384281</v>
       </c>
       <c r="N17">
-        <v>1.010591681199201</v>
+        <v>1.01265792162951</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.042286703762134</v>
+        <v>1.042222541611915</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.035009504054572</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034889474703025</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021332598465473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9925544318831605</v>
+        <v>0.992722997564087</v>
       </c>
       <c r="D18">
-        <v>1.020391586538907</v>
+        <v>1.020174796678185</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.027763885725069</v>
+        <v>1.027666188875471</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.045531656365829</v>
+        <v>1.045446948045268</v>
       </c>
       <c r="J18">
-        <v>1.019901705115719</v>
+        <v>1.020063768462662</v>
       </c>
       <c r="K18">
-        <v>1.033867379085275</v>
+        <v>1.033654142436349</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.041119990155212</v>
+        <v>1.041023864993502</v>
       </c>
       <c r="N18">
-        <v>1.010641622430705</v>
+        <v>1.012652773138065</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.042008691499958</v>
+        <v>1.041932689139944</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.035085895055941</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034950642655548</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021334224704945</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9925937521681597</v>
+        <v>0.9927754354207704</v>
       </c>
       <c r="D19">
-        <v>1.020305164202416</v>
+        <v>1.020103787065937</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.027376488096797</v>
+        <v>1.027290006658574</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.045434651687644</v>
+        <v>1.045358073398556</v>
       </c>
       <c r="J19">
-        <v>1.019803225820445</v>
+        <v>1.019977942715364</v>
       </c>
       <c r="K19">
-        <v>1.033719657929747</v>
+        <v>1.033521564422283</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.04067672444967</v>
+        <v>1.040591628181628</v>
       </c>
       <c r="N19">
-        <v>1.010586898822144</v>
+        <v>1.01260292714501</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.041333072035834</v>
+        <v>1.041265767844004</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.034987857205036</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034863935822563</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.02128468862278</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9909791494446083</v>
+        <v>0.9912659907137197</v>
       </c>
       <c r="D20">
-        <v>1.019087343422494</v>
+        <v>1.018997936729757</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.025571030809775</v>
+        <v>1.025567415421853</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.044998283712569</v>
+        <v>1.044973182131857</v>
       </c>
       <c r="J20">
-        <v>1.018862293916779</v>
+        <v>1.019137795631305</v>
       </c>
       <c r="K20">
-        <v>1.032802667654006</v>
+        <v>1.032714758248927</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.03917866849094</v>
+        <v>1.039175112662324</v>
       </c>
       <c r="N20">
-        <v>1.010236775088024</v>
+        <v>1.012415686247499</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.039620509344587</v>
+        <v>1.039617695280405</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.034343433907677</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.034297807356198</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021089804036497</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9869553342756333</v>
+        <v>0.9875156268186179</v>
       </c>
       <c r="D21">
-        <v>1.01653309405379</v>
+        <v>1.016701157723632</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.022806953469705</v>
+        <v>1.022999992355149</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044334660746212</v>
+        <v>1.044424305942935</v>
       </c>
       <c r="J21">
-        <v>1.017008756501377</v>
+        <v>1.017544749510353</v>
       </c>
       <c r="K21">
-        <v>1.031207868664876</v>
+        <v>1.031372882275604</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.037368751179955</v>
+        <v>1.037558342438107</v>
       </c>
       <c r="N21">
-        <v>1.009609123946096</v>
+        <v>1.012403691725543</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.038147246528198</v>
+        <v>1.038297295773432</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.033219075460399</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.033352602645717</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020835596873271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9843934648514496</v>
+        <v>0.985126183464772</v>
       </c>
       <c r="D22">
-        <v>1.014916858910079</v>
+        <v>1.015247642675027</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.02108950307603</v>
+        <v>1.021407044779293</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043908943197294</v>
+        <v>1.044071162698581</v>
       </c>
       <c r="J22">
-        <v>1.015834262845932</v>
+        <v>1.016533374997366</v>
       </c>
       <c r="K22">
-        <v>1.030198490818691</v>
+        <v>1.030522973914144</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.036254438636055</v>
+        <v>1.036566026887914</v>
       </c>
       <c r="N22">
-        <v>1.009212178640335</v>
+        <v>1.012389413079674</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.037265339426437</v>
+        <v>1.037511941706932</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.032491861269202</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.032736842163596</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.020673353655567</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9857476040416733</v>
+        <v>0.9863765470444942</v>
       </c>
       <c r="D23">
-        <v>1.015765299067169</v>
+        <v>1.016001234189482</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.021994531391185</v>
+        <v>1.022238809875642</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.044131195701837</v>
+        <v>1.04425094632615</v>
       </c>
       <c r="J23">
-        <v>1.016451021399791</v>
+        <v>1.017051953917882</v>
       </c>
       <c r="K23">
-        <v>1.030725047502593</v>
+        <v>1.030956601368213</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.036839487687961</v>
+        <v>1.037079301725741</v>
       </c>
       <c r="N23">
-        <v>1.009419844173708</v>
+        <v>1.012352229185894</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.037728368464414</v>
+        <v>1.037918165904528</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.032854505510366</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.033032840413996</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020754295242141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9909991236623248</v>
+        <v>0.9912866639461756</v>
       </c>
       <c r="D24">
-        <v>1.019075222535017</v>
+        <v>1.0189867390626</v>
       </c>
       <c r="E24">
         <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.025523721869165</v>
+        <v>1.025520786678987</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.044980899669644</v>
+        <v>1.044956452778867</v>
       </c>
       <c r="J24">
-        <v>1.018848112257001</v>
+        <v>1.019124302016443</v>
       </c>
       <c r="K24">
-        <v>1.032775436861012</v>
+        <v>1.032688433358683</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.039116963294662</v>
+        <v>1.039114076402128</v>
       </c>
       <c r="N24">
-        <v>1.010228258856111</v>
+        <v>1.012405378207825</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.039530842401251</v>
+        <v>1.039528557616289</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.034296718953471</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.034249064389886</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021079485647136</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9969103866112996</v>
+        <v>0.9969819055526518</v>
       </c>
       <c r="D25">
-        <v>1.02282110254052</v>
+        <v>1.022481475190566</v>
       </c>
       <c r="E25">
         <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.029527177144325</v>
+        <v>1.029342778854089</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.045898815838338</v>
+        <v>1.04576512027174</v>
       </c>
       <c r="J25">
-        <v>1.021542177827144</v>
+        <v>1.021611269270848</v>
       </c>
       <c r="K25">
-        <v>1.035075186344675</v>
+        <v>1.03474053890584</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.041683783285978</v>
+        <v>1.041502043841996</v>
       </c>
       <c r="N25">
-        <v>1.011136722735806</v>
+        <v>1.013024093843957</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.041562308194597</v>
+        <v>1.041418473807236</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.035919899921409</v>
+        <v>1.035696843282533</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021466462278807</v>
       </c>
     </row>
   </sheetData>
